--- a/ITINERARIO/Itinerario_Diario_Condor_Mateo_Ichthion_V2.xlsx
+++ b/ITINERARIO/Itinerario_Diario_Condor_Mateo_Ichthion_V2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af6f98336ce5edb5/Documentos/Trabajo Ichthion/Documentos Pasantias/24421_PPP/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af6f98336ce5edb5/Documentos/Trabajo Ichthion/Documentos Pasantias/24421_PPP/ITINERARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="646" documentId="8_{D73B1CBD-5DA7-4C58-9D7C-EA115641B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D548226-2E77-4AA4-8A00-5824DA39A31A}"/>
+  <xr:revisionPtr revIDLastSave="699" documentId="8_{D73B1CBD-5DA7-4C58-9D7C-EA115641B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E02798-20D4-4E13-82F4-B91FE853D35D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E57DCB6-2645-4C44-BA25-F907BD27D6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E57DCB6-2645-4C44-BA25-F907BD27D6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVIDADES" sheetId="1" r:id="rId1"/>
-    <sheet name="HORARIO" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="HORARIO" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="216">
   <si>
     <t>Fecha de inicio</t>
   </si>
@@ -902,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -952,49 +953,148 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,28 +1103,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,85 +1112,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1135,6 +1139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1456,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C5C324-B7BC-4B86-9EE5-BF067769085A}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="A48:XFD49"/>
+    <sheetView topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C132" sqref="B103:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,152 +1481,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="48">
         <v>45754</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="48"/>
+      <c r="E3" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="48">
         <v>45842</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68" t="s">
+      <c r="C4" s="48"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="68" t="s">
+      <c r="C5" s="49"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="68" t="s">
+      <c r="C6" s="50"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="41" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="41" t="s">
         <v>208</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="L7" s="46"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" s="47"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="59" t="s">
+      <c r="G9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="48">
         <v>45754</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="48">
         <v>45758</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="52">
         <v>45754</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1633,17 +1638,17 @@
       <c r="I10" s="6">
         <v>2</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="45">
         <f>SUM(I10:I11)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1656,16 +1661,16 @@
       <c r="I11" s="6">
         <v>2</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="53">
         <v>45755</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -1680,17 +1685,17 @@
       <c r="I12" s="9">
         <v>4</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="46">
         <f>SUM(I12:I13)</f>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="11" t="s">
         <v>29</v>
       </c>
@@ -1703,16 +1708,16 @@
       <c r="I13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="17" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="52">
         <v>45756</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1727,17 +1732,17 @@
       <c r="I14" s="6">
         <v>2</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="45">
         <f>SUM(I14:I16)</f>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1750,14 +1755,14 @@
       <c r="I15" s="6">
         <v>2</v>
       </c>
-      <c r="J15" s="17"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
@@ -1770,16 +1775,16 @@
       <c r="I16" s="6">
         <v>2</v>
       </c>
-      <c r="J16" s="17"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="20" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="53">
         <v>45757</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -1794,17 +1799,17 @@
       <c r="I17" s="9">
         <v>4</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="46">
         <f>SUM(I17:I18)</f>
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="11" t="s">
         <v>182</v>
       </c>
@@ -1817,81 +1822,81 @@
       <c r="I18" s="9">
         <v>2</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="19" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="53" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="64">
         <v>45758</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="31">
         <v>0.375</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I19" s="57">
-        <v>4</v>
-      </c>
-      <c r="J19" s="53">
+      <c r="I19" s="28">
+        <v>4</v>
+      </c>
+      <c r="J19" s="63">
         <f>SUM(I19:I20)</f>
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="31">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H20" s="56">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I20" s="57">
-        <v>2</v>
-      </c>
-      <c r="J20" s="53"/>
+      <c r="H20" s="31">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I20" s="28">
+        <v>2</v>
+      </c>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="64"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="48">
         <v>45761</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="48">
         <v>45765</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="54">
         <v>45761</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -1906,17 +1911,17 @@
       <c r="I22" s="6">
         <v>2</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="56">
         <f>SUM(I22:I24)</f>
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="7" t="s">
         <v>41</v>
       </c>
@@ -1929,14 +1934,14 @@
       <c r="I23" s="6">
         <v>2</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="7" t="s">
         <v>42</v>
       </c>
@@ -1949,16 +1954,16 @@
       <c r="I24" s="6">
         <v>2</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="25" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="60">
         <v>45762</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -1973,17 +1978,17 @@
       <c r="I25" s="9">
         <v>4</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="58">
         <f>SUM(I25:I26)</f>
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="11" t="s">
         <v>44</v>
       </c>
@@ -1996,16 +2001,16 @@
       <c r="I26" s="9">
         <v>2</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="21" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="54">
         <v>45763</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -2020,17 +2025,17 @@
       <c r="I27" s="6">
         <v>2</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="56">
         <f>SUM(I27:I28)</f>
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="7" t="s">
         <v>46</v>
       </c>
@@ -2043,12 +2048,12 @@
       <c r="I28" s="6">
         <v>4</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="13" t="s">
         <v>39</v>
       </c>
@@ -2072,9 +2077,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="13" t="s">
         <v>39</v>
       </c>
@@ -2098,31 +2103,31 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="64"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="48">
         <v>45768</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="48">
         <v>45772</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="52">
         <v>45768</v>
       </c>
       <c r="F32" s="7" t="s">
@@ -2137,17 +2142,17 @@
       <c r="I32" s="6">
         <v>2</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="45">
         <f>SUM(I32:I33)</f>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="7" t="s">
         <v>54</v>
       </c>
@@ -2160,12 +2165,12 @@
       <c r="I33" s="6">
         <v>2</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="9" t="s">
         <v>50</v>
       </c>
@@ -2190,13 +2195,13 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="17" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="52">
         <v>45770</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -2211,17 +2216,17 @@
       <c r="I35" s="6">
         <v>2</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="45">
         <f>SUM(I35:I36)</f>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="7" t="s">
         <v>57</v>
       </c>
@@ -2234,16 +2239,16 @@
       <c r="I36" s="6">
         <v>2</v>
       </c>
-      <c r="J36" s="17"/>
+      <c r="J36" s="45"/>
     </row>
     <row r="37" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="20" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="53">
         <v>45771</v>
       </c>
       <c r="F37" s="11" t="s">
@@ -2258,17 +2263,17 @@
       <c r="I37" s="9">
         <v>2</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="46">
         <f>SUM(I37:I38)</f>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="11" t="s">
         <v>59</v>
       </c>
@@ -2281,81 +2286,81 @@
       <c r="I38" s="9">
         <v>2</v>
       </c>
-      <c r="J38" s="20"/>
+      <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="53" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="64">
         <v>45772</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="31">
         <v>0.375</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H39" s="31">
         <v>0.5</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="28">
         <v>3</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="63">
         <f>SUM(I39:I40)</f>
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40" s="31">
         <v>0.5</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="28">
         <v>1</v>
       </c>
-      <c r="J40" s="53"/>
+      <c r="J40" s="63"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="64"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="48">
         <v>45775</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="48">
         <v>45779</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="52">
         <v>45775</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -2370,17 +2375,17 @@
       <c r="I42" s="6">
         <v>2</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="45">
         <f>SUM(I42:I43)</f>
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="7" t="s">
         <v>68</v>
       </c>
@@ -2393,12 +2398,12 @@
       <c r="I43" s="6">
         <v>2</v>
       </c>
-      <c r="J43" s="17"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="9" t="s">
         <v>62</v>
       </c>
@@ -2423,13 +2428,13 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="17" t="s">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="52">
         <v>45777</v>
       </c>
       <c r="F45" s="7" t="s">
@@ -2444,17 +2449,17 @@
       <c r="I45" s="6">
         <v>2</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="45">
         <f>SUM(I45:I47)</f>
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="7" t="s">
         <v>71</v>
       </c>
@@ -2467,14 +2472,14 @@
       <c r="I46" s="6">
         <v>1</v>
       </c>
-      <c r="J46" s="17"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="7" t="s">
         <v>72</v>
       </c>
@@ -2487,16 +2492,16 @@
       <c r="I47" s="6">
         <v>1</v>
       </c>
-      <c r="J47" s="17"/>
+      <c r="J47" s="45"/>
     </row>
     <row r="48" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="20" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="53">
         <v>45778</v>
       </c>
       <c r="F48" s="11" t="s">
@@ -2511,17 +2516,17 @@
       <c r="I48" s="9">
         <v>2</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="46">
         <f>SUM(I48:I49)</f>
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="29"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="11" t="s">
         <v>73</v>
       </c>
@@ -2534,12 +2539,12 @@
       <c r="I49" s="9">
         <v>2</v>
       </c>
-      <c r="J49" s="20"/>
+      <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="13" t="s">
         <v>65</v>
       </c>
@@ -2563,34 +2568,34 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="64"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="37"/>
     </row>
     <row r="52" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="48">
         <v>45782</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="48">
         <v>45786</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="52">
         <v>45782</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="62" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="8">
@@ -2602,18 +2607,18 @@
       <c r="I52" s="6">
         <v>2</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="46">
         <f>SUM(I52:I53)</f>
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="8">
         <v>0.66666666666666663</v>
       </c>
@@ -2623,16 +2628,16 @@
       <c r="I53" s="6">
         <v>2</v>
       </c>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="20" t="s">
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="53">
         <v>45783</v>
       </c>
       <c r="F54" s="11" t="s">
@@ -2647,17 +2652,17 @@
       <c r="I54" s="9">
         <v>2</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="46">
         <f>SUM(I54:I55)</f>
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="29"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="53"/>
       <c r="F55" s="11" t="s">
         <v>80</v>
       </c>
@@ -2670,16 +2675,16 @@
       <c r="I55" s="9">
         <v>2</v>
       </c>
-      <c r="J55" s="20"/>
+      <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="17" t="s">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="52">
         <v>45784</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -2694,17 +2699,17 @@
       <c r="I56" s="6">
         <v>2</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="45">
         <f>SUM(I56:I57)</f>
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="7" t="s">
         <v>82</v>
       </c>
@@ -2717,12 +2722,12 @@
       <c r="I57" s="6">
         <v>2</v>
       </c>
-      <c r="J57" s="17"/>
+      <c r="J57" s="45"/>
     </row>
     <row r="58" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="9" t="s">
         <v>83</v>
       </c>
@@ -2747,81 +2752,81 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="53" t="s">
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="54">
+      <c r="E59" s="64">
         <v>45786</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="G59" s="56">
+      <c r="G59" s="31">
         <v>0.375</v>
       </c>
-      <c r="H59" s="56">
+      <c r="H59" s="31">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I59" s="57">
-        <v>2</v>
-      </c>
-      <c r="J59" s="53">
+      <c r="I59" s="28">
+        <v>2</v>
+      </c>
+      <c r="J59" s="63">
         <f>SUM(I59:I60)</f>
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="55" t="s">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="G60" s="56">
+      <c r="G60" s="31">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H60" s="56">
+      <c r="H60" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I60" s="57">
-        <v>2</v>
-      </c>
-      <c r="J60" s="53"/>
+      <c r="I60" s="28">
+        <v>2</v>
+      </c>
+      <c r="J60" s="63"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="64"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="37"/>
     </row>
     <row r="62" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="48">
         <v>45789</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="48">
         <v>45793</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="52">
         <v>45789</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F62" s="62" t="s">
         <v>91</v>
       </c>
       <c r="G62" s="8">
@@ -2833,18 +2838,18 @@
       <c r="I62" s="6">
         <v>2</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="45">
         <f>SUM(I62:I63)</f>
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="8">
         <v>0.66666666666666663</v>
       </c>
@@ -2854,16 +2859,16 @@
       <c r="I63" s="6">
         <v>2</v>
       </c>
-      <c r="J63" s="17"/>
+      <c r="J63" s="45"/>
     </row>
     <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="20" t="s">
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="53">
         <v>45790</v>
       </c>
       <c r="F64" s="11" t="s">
@@ -2878,17 +2883,17 @@
       <c r="I64" s="9">
         <v>2</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="46">
         <f>SUM(I64:I65)</f>
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="29"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="53"/>
       <c r="F65" s="11" t="s">
         <v>92</v>
       </c>
@@ -2901,16 +2906,16 @@
       <c r="I65" s="9">
         <v>2</v>
       </c>
-      <c r="J65" s="20"/>
+      <c r="J65" s="46"/>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="17" t="s">
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="52">
         <v>45791</v>
       </c>
       <c r="F66" s="7" t="s">
@@ -2925,17 +2930,17 @@
       <c r="I66" s="6">
         <v>2</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="45">
         <f>SUM(I66:I67)</f>
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="18"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="7" t="s">
         <v>94</v>
       </c>
@@ -2948,16 +2953,16 @@
       <c r="I67" s="6">
         <v>2</v>
       </c>
-      <c r="J67" s="17"/>
+      <c r="J67" s="45"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="20" t="s">
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="53">
         <v>45792</v>
       </c>
       <c r="F68" s="11" t="s">
@@ -2972,17 +2977,17 @@
       <c r="I68" s="9">
         <v>2</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J68" s="46">
         <f>SUM(I68:I69)</f>
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="29"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="11" t="s">
         <v>95</v>
       </c>
@@ -2995,61 +3000,61 @@
       <c r="I69" s="9">
         <v>2</v>
       </c>
-      <c r="J69" s="20"/>
+      <c r="J69" s="46"/>
     </row>
     <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="57" t="s">
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="29">
         <v>45793</v>
       </c>
-      <c r="F70" s="55" t="s">
+      <c r="F70" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G70" s="56">
+      <c r="G70" s="31">
         <v>0.375</v>
       </c>
-      <c r="H70" s="56">
+      <c r="H70" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I70" s="57">
-        <v>4</v>
-      </c>
-      <c r="J70" s="57">
+      <c r="I70" s="28">
+        <v>4</v>
+      </c>
+      <c r="J70" s="28">
         <f>SUM(I70)</f>
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="64"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="37"/>
     </row>
     <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72" s="48">
         <v>45796</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="48">
         <v>45800</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="54">
         <v>45796</v>
       </c>
       <c r="F72" s="7" t="s">
@@ -3064,17 +3069,17 @@
       <c r="I72" s="6">
         <v>2</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J72" s="45">
         <f>SUM(I72:I73)</f>
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="24"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="55"/>
       <c r="F73" s="7" t="s">
         <v>103</v>
       </c>
@@ -3087,16 +3092,16 @@
       <c r="I73" s="6">
         <v>2</v>
       </c>
-      <c r="J73" s="17"/>
+      <c r="J73" s="45"/>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="25" t="s">
+      <c r="A74" s="50"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E74" s="60">
         <v>45797</v>
       </c>
       <c r="F74" s="11" t="s">
@@ -3111,17 +3116,17 @@
       <c r="I74" s="9">
         <v>2</v>
       </c>
-      <c r="J74" s="20">
+      <c r="J74" s="46">
         <f>SUM(I74:I75)</f>
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="28"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="61"/>
       <c r="F75" s="11" t="s">
         <v>105</v>
       </c>
@@ -3134,16 +3139,16 @@
       <c r="I75" s="9">
         <v>2</v>
       </c>
-      <c r="J75" s="20"/>
+      <c r="J75" s="46"/>
     </row>
     <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="21" t="s">
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="54">
         <v>45798</v>
       </c>
       <c r="F76" s="7" t="s">
@@ -3158,17 +3163,17 @@
       <c r="I76" s="6">
         <v>2</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="45">
         <f>SUM(I76:I77)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="24"/>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="55"/>
       <c r="F77" s="7" t="s">
         <v>106</v>
       </c>
@@ -3181,12 +3186,12 @@
       <c r="I77" s="6">
         <v>2</v>
       </c>
-      <c r="J77" s="17"/>
+      <c r="J77" s="45"/>
     </row>
     <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
       <c r="D78" s="9" t="s">
         <v>101</v>
       </c>
@@ -3211,9 +3216,9 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="13" t="s">
         <v>65</v>
       </c>
@@ -3237,31 +3242,31 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="64"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="37"/>
     </row>
     <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81" s="48">
         <v>45803</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="48">
         <v>45807</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="52">
         <v>45803</v>
       </c>
       <c r="F81" s="7" t="s">
@@ -3276,17 +3281,17 @@
       <c r="I81" s="6">
         <v>2</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J81" s="45">
         <f>SUM(I81:I83)</f>
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="18"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="52"/>
       <c r="F82" s="7" t="s">
         <v>116</v>
       </c>
@@ -3299,14 +3304,14 @@
       <c r="I82" s="6">
         <v>1</v>
       </c>
-      <c r="J82" s="17"/>
+      <c r="J82" s="45"/>
     </row>
     <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="52"/>
       <c r="F83" s="7" t="s">
         <v>115</v>
       </c>
@@ -3319,16 +3324,16 @@
       <c r="I83" s="6">
         <v>1</v>
       </c>
-      <c r="J83" s="17"/>
-    </row>
-    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="20" t="s">
+      <c r="J83" s="45"/>
+    </row>
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="50"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E84" s="53">
         <v>45804</v>
       </c>
       <c r="F84" s="11" t="s">
@@ -3343,17 +3348,17 @@
       <c r="I84" s="9">
         <v>2</v>
       </c>
-      <c r="J84" s="20">
+      <c r="J84" s="46">
         <f>SUM(I84:I85)</f>
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="29"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="53"/>
       <c r="F85" s="11" t="s">
         <v>118</v>
       </c>
@@ -3366,16 +3371,16 @@
       <c r="I85" s="9">
         <v>2</v>
       </c>
-      <c r="J85" s="20"/>
+      <c r="J85" s="46"/>
     </row>
     <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="17" t="s">
+      <c r="A86" s="50"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="52">
         <v>45805</v>
       </c>
       <c r="F86" s="7" t="s">
@@ -3390,17 +3395,17 @@
       <c r="I86" s="6">
         <v>2</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J86" s="45">
         <f>SUM(I86:I87)</f>
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="7" t="s">
         <v>120</v>
       </c>
@@ -3413,16 +3418,16 @@
       <c r="I87" s="6">
         <v>2</v>
       </c>
-      <c r="J87" s="17"/>
+      <c r="J87" s="45"/>
     </row>
     <row r="88" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="20" t="s">
+      <c r="A88" s="50"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="53">
         <v>45806</v>
       </c>
       <c r="F88" s="11" t="s">
@@ -3437,17 +3442,17 @@
       <c r="I88" s="9">
         <v>2</v>
       </c>
-      <c r="J88" s="20">
+      <c r="J88" s="46">
         <f>SUM(I88:I89)</f>
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="29"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="53"/>
       <c r="F89" s="11" t="s">
         <v>122</v>
       </c>
@@ -3460,84 +3465,84 @@
       <c r="I89" s="9">
         <v>2</v>
       </c>
-      <c r="J89" s="20"/>
+      <c r="J89" s="46"/>
     </row>
     <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="53" t="s">
+      <c r="A90" s="50"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E90" s="54">
+      <c r="E90" s="64">
         <v>45807</v>
       </c>
-      <c r="F90" s="55" t="s">
+      <c r="F90" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="G90" s="56">
+      <c r="G90" s="31">
         <v>0.375</v>
       </c>
-      <c r="H90" s="56">
+      <c r="H90" s="31">
         <v>0.5</v>
       </c>
-      <c r="I90" s="57">
+      <c r="I90" s="28">
         <v>3</v>
       </c>
-      <c r="J90" s="53">
+      <c r="J90" s="63">
         <f>SUM(I90:I91)</f>
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="55" t="s">
+      <c r="A91" s="50"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="G91" s="56">
+      <c r="G91" s="31">
         <v>0.5</v>
       </c>
-      <c r="H91" s="56">
+      <c r="H91" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I91" s="57">
+      <c r="I91" s="28">
         <v>1</v>
       </c>
-      <c r="J91" s="53"/>
+      <c r="J91" s="63"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="60"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="64"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="37"/>
     </row>
     <row r="93" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="31">
+      <c r="B93" s="48">
         <v>45810</v>
       </c>
-      <c r="C93" s="31">
+      <c r="C93" s="48">
         <v>45814</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="52">
         <v>45810</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="62" t="s">
         <v>130</v>
       </c>
       <c r="G93" s="8">
@@ -3549,18 +3554,18 @@
       <c r="I93" s="6">
         <v>2</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J93" s="45">
         <f>SUM(I93:I94)</f>
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="19"/>
+      <c r="A94" s="50"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="62"/>
       <c r="G94" s="8">
         <v>0.66666666666666663</v>
       </c>
@@ -3570,16 +3575,16 @@
       <c r="I94" s="6">
         <v>2</v>
       </c>
-      <c r="J94" s="17"/>
+      <c r="J94" s="45"/>
     </row>
     <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="20" t="s">
+      <c r="A95" s="50"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="53">
         <v>45811</v>
       </c>
       <c r="F95" s="11" t="s">
@@ -3594,17 +3599,17 @@
       <c r="I95" s="9">
         <v>2</v>
       </c>
-      <c r="J95" s="20">
+      <c r="J95" s="46">
         <f>SUM(I95:I96)</f>
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="29"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="53"/>
       <c r="F96" s="11" t="s">
         <v>132</v>
       </c>
@@ -3617,16 +3622,16 @@
       <c r="I96" s="9">
         <v>2</v>
       </c>
-      <c r="J96" s="20"/>
+      <c r="J96" s="46"/>
     </row>
     <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="17" t="s">
+      <c r="A97" s="50"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="52">
         <v>45812</v>
       </c>
       <c r="F97" s="7" t="s">
@@ -3641,17 +3646,17 @@
       <c r="I97" s="6">
         <v>2</v>
       </c>
-      <c r="J97" s="17">
+      <c r="J97" s="45">
         <f>SUM(I97:I98)</f>
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="18"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="52"/>
       <c r="F98" s="7" t="s">
         <v>134</v>
       </c>
@@ -3664,16 +3669,16 @@
       <c r="I98" s="6">
         <v>2</v>
       </c>
-      <c r="J98" s="17"/>
+      <c r="J98" s="45"/>
     </row>
     <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="20" t="s">
+      <c r="A99" s="50"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E99" s="29">
+      <c r="E99" s="53">
         <v>45813</v>
       </c>
       <c r="F99" s="11" t="s">
@@ -3688,17 +3693,17 @@
       <c r="I99" s="9">
         <v>2</v>
       </c>
-      <c r="J99" s="20">
+      <c r="J99" s="46">
         <f>SUM(I99:I100)</f>
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="29"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="53"/>
       <c r="F100" s="11" t="s">
         <v>136</v>
       </c>
@@ -3711,61 +3716,61 @@
       <c r="I100" s="9">
         <v>2</v>
       </c>
-      <c r="J100" s="20"/>
+      <c r="J100" s="46"/>
     </row>
     <row r="101" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="57" t="s">
+      <c r="A101" s="50"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E101" s="58">
+      <c r="E101" s="29">
         <v>45814</v>
       </c>
-      <c r="F101" s="55" t="s">
+      <c r="F101" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="G101" s="56">
+      <c r="G101" s="31">
         <v>0.375</v>
       </c>
-      <c r="H101" s="56">
+      <c r="H101" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I101" s="57">
-        <v>4</v>
-      </c>
-      <c r="J101" s="57">
+      <c r="I101" s="28">
+        <v>4</v>
+      </c>
+      <c r="J101" s="28">
         <f>SUM(I101)</f>
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="60"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="63"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="61"/>
-      <c r="J102" s="64"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="37"/>
     </row>
     <row r="103" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="31">
+      <c r="B103" s="48">
         <v>45817</v>
       </c>
-      <c r="C103" s="31">
+      <c r="C103" s="48">
         <v>45821</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="52">
         <v>45817</v>
       </c>
       <c r="F103" s="7" t="s">
@@ -3780,17 +3785,17 @@
       <c r="I103" s="6">
         <v>2</v>
       </c>
-      <c r="J103" s="17">
+      <c r="J103" s="45">
         <f>SUM(I103:I104)</f>
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
+      <c r="A104" s="50"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="52"/>
       <c r="F104" s="7" t="s">
         <v>143</v>
       </c>
@@ -3803,16 +3808,16 @@
       <c r="I104" s="6">
         <v>2</v>
       </c>
-      <c r="J104" s="17"/>
+      <c r="J104" s="45"/>
     </row>
     <row r="105" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="20" t="s">
+      <c r="A105" s="50"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E105" s="29">
+      <c r="E105" s="53">
         <v>45818</v>
       </c>
       <c r="F105" s="11" t="s">
@@ -3827,17 +3832,17 @@
       <c r="I105" s="9">
         <v>2</v>
       </c>
-      <c r="J105" s="20">
+      <c r="J105" s="46">
         <f>SUM(I105:I106)</f>
         <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="29"/>
+      <c r="A106" s="50"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="53"/>
       <c r="F106" s="11" t="s">
         <v>144</v>
       </c>
@@ -3850,16 +3855,16 @@
       <c r="I106" s="9">
         <v>2</v>
       </c>
-      <c r="J106" s="20"/>
+      <c r="J106" s="46"/>
     </row>
     <row r="107" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="17" t="s">
+      <c r="A107" s="50"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="52">
         <v>45819</v>
       </c>
       <c r="F107" s="7" t="s">
@@ -3874,17 +3879,17 @@
       <c r="I107" s="6">
         <v>2</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J107" s="45">
         <f>SUM(I107:I108)</f>
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="18"/>
+      <c r="A108" s="50"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="52"/>
       <c r="F108" s="7" t="s">
         <v>146</v>
       </c>
@@ -3897,16 +3902,16 @@
       <c r="I108" s="6">
         <v>2</v>
       </c>
-      <c r="J108" s="17"/>
+      <c r="J108" s="45"/>
     </row>
     <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="20" t="s">
+      <c r="A109" s="50"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E109" s="29">
+      <c r="E109" s="53">
         <v>45820</v>
       </c>
       <c r="F109" s="11" t="s">
@@ -3921,17 +3926,17 @@
       <c r="I109" s="9">
         <v>2</v>
       </c>
-      <c r="J109" s="20">
+      <c r="J109" s="46">
         <f>SUM(I109:I110)</f>
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="29"/>
+      <c r="A110" s="50"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="53"/>
       <c r="F110" s="11" t="s">
         <v>148</v>
       </c>
@@ -3944,61 +3949,61 @@
       <c r="I110" s="9">
         <v>2</v>
       </c>
-      <c r="J110" s="20"/>
+      <c r="J110" s="46"/>
     </row>
     <row r="111" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="30"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="57" t="s">
+      <c r="A111" s="50"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="E111" s="58">
+      <c r="E111" s="29">
         <v>45821</v>
       </c>
-      <c r="F111" s="55" t="s">
+      <c r="F111" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="G111" s="56">
+      <c r="G111" s="31">
         <v>0.375</v>
       </c>
-      <c r="H111" s="56">
+      <c r="H111" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I111" s="57">
-        <v>4</v>
-      </c>
-      <c r="J111" s="57">
+      <c r="I111" s="28">
+        <v>4</v>
+      </c>
+      <c r="J111" s="28">
         <f>SUM(I111)</f>
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="60"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="61"/>
-      <c r="J112" s="64"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="37"/>
     </row>
     <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="31">
+      <c r="B113" s="48">
         <v>45824</v>
       </c>
-      <c r="C113" s="31">
+      <c r="C113" s="48">
         <v>45828</v>
       </c>
-      <c r="D113" s="21" t="s">
+      <c r="D113" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="54">
         <v>45824</v>
       </c>
       <c r="F113" s="7" t="s">
@@ -4013,17 +4018,17 @@
       <c r="I113" s="6">
         <v>2</v>
       </c>
-      <c r="J113" s="17">
+      <c r="J113" s="45">
         <f>SUM(I113:I114)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="24"/>
+    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="50"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="55"/>
       <c r="F114" s="7" t="s">
         <v>153</v>
       </c>
@@ -4036,16 +4041,16 @@
       <c r="I114" s="6">
         <v>2</v>
       </c>
-      <c r="J114" s="17"/>
+      <c r="J114" s="45"/>
     </row>
     <row r="115" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="25" t="s">
+      <c r="A115" s="50"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E115" s="27">
+      <c r="E115" s="60">
         <v>45825</v>
       </c>
       <c r="F115" s="11" t="s">
@@ -4060,17 +4065,17 @@
       <c r="I115" s="9">
         <v>2</v>
       </c>
-      <c r="J115" s="20">
+      <c r="J115" s="46">
         <f>SUM(I115:I116)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="28"/>
+    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="50"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="61"/>
       <c r="F116" s="11" t="s">
         <v>158</v>
       </c>
@@ -4083,16 +4088,16 @@
       <c r="I116" s="9">
         <v>2</v>
       </c>
-      <c r="J116" s="20"/>
+      <c r="J116" s="46"/>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="21" t="s">
+      <c r="A117" s="50"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="E117" s="23">
+      <c r="E117" s="54">
         <v>45826</v>
       </c>
       <c r="F117" s="7" t="s">
@@ -4107,17 +4112,17 @@
       <c r="I117" s="6">
         <v>2</v>
       </c>
-      <c r="J117" s="17">
+      <c r="J117" s="45">
         <f>SUM(I117:I118)</f>
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="24"/>
+      <c r="A118" s="50"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="55"/>
       <c r="F118" s="7" t="s">
         <v>156</v>
       </c>
@@ -4130,16 +4135,16 @@
       <c r="I118" s="6">
         <v>2</v>
       </c>
-      <c r="J118" s="17"/>
+      <c r="J118" s="45"/>
     </row>
     <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="25" t="s">
+      <c r="A119" s="50"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E119" s="27">
+      <c r="E119" s="60">
         <v>45827</v>
       </c>
       <c r="F119" s="11" t="s">
@@ -4154,17 +4159,17 @@
       <c r="I119" s="9">
         <v>2</v>
       </c>
-      <c r="J119" s="20">
+      <c r="J119" s="46">
         <f>SUM(I119:I120)</f>
         <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="28"/>
+      <c r="A120" s="50"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="61"/>
       <c r="F120" s="11" t="s">
         <v>184</v>
       </c>
@@ -4177,61 +4182,61 @@
       <c r="I120" s="9">
         <v>2</v>
       </c>
-      <c r="J120" s="20"/>
+      <c r="J120" s="46"/>
     </row>
     <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="57" t="s">
+      <c r="A121" s="50"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E121" s="58">
+      <c r="E121" s="29">
         <v>45828</v>
       </c>
-      <c r="F121" s="55" t="s">
+      <c r="F121" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="G121" s="56">
+      <c r="G121" s="31">
         <v>0.375</v>
       </c>
-      <c r="H121" s="56">
+      <c r="H121" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I121" s="57">
-        <v>4</v>
-      </c>
-      <c r="J121" s="57">
+      <c r="I121" s="28">
+        <v>4</v>
+      </c>
+      <c r="J121" s="28">
         <f>SUM(I121)</f>
         <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="60"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="61"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="63"/>
-      <c r="G122" s="61"/>
-      <c r="H122" s="61"/>
-      <c r="I122" s="61"/>
-      <c r="J122" s="64"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="37"/>
     </row>
     <row r="123" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="31">
+      <c r="B123" s="48">
         <v>45831</v>
       </c>
-      <c r="C123" s="31">
+      <c r="C123" s="48">
         <v>45835</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E123" s="52">
         <v>45831</v>
       </c>
       <c r="F123" s="7" t="s">
@@ -4246,17 +4251,17 @@
       <c r="I123" s="6">
         <v>2</v>
       </c>
-      <c r="J123" s="17">
+      <c r="J123" s="45">
         <f>SUM(I123:I124)</f>
         <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="18"/>
+      <c r="A124" s="50"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="52"/>
       <c r="F124" s="7" t="s">
         <v>167</v>
       </c>
@@ -4269,12 +4274,12 @@
       <c r="I124" s="6">
         <v>2</v>
       </c>
-      <c r="J124" s="17"/>
-    </row>
-    <row r="125" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
+      <c r="J124" s="45"/>
+    </row>
+    <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="50"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
       <c r="D125" s="9" t="s">
         <v>165</v>
       </c>
@@ -4299,13 +4304,13 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="17" t="s">
+      <c r="A126" s="50"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="52">
         <v>45833</v>
       </c>
       <c r="F126" s="7" t="s">
@@ -4320,17 +4325,17 @@
       <c r="I126" s="6">
         <v>2</v>
       </c>
-      <c r="J126" s="17">
+      <c r="J126" s="45">
         <f>SUM(I126:I127)</f>
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="18"/>
+      <c r="A127" s="50"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="52"/>
       <c r="F127" s="7" t="s">
         <v>169</v>
       </c>
@@ -4343,16 +4348,16 @@
       <c r="I127" s="6">
         <v>2</v>
       </c>
-      <c r="J127" s="17"/>
+      <c r="J127" s="45"/>
     </row>
     <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="30"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="20" t="s">
+      <c r="A128" s="50"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="E128" s="29">
+      <c r="E128" s="53">
         <v>45834</v>
       </c>
       <c r="F128" s="11" t="s">
@@ -4367,17 +4372,17 @@
       <c r="I128" s="9">
         <v>2</v>
       </c>
-      <c r="J128" s="20">
+      <c r="J128" s="46">
         <f>SUM(I128:I129)</f>
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="29"/>
+      <c r="A129" s="50"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="53"/>
       <c r="F129" s="11" t="s">
         <v>171</v>
       </c>
@@ -4390,134 +4395,134 @@
       <c r="I129" s="9">
         <v>2</v>
       </c>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="30"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="57" t="s">
+      <c r="J129" s="46"/>
+    </row>
+    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="50"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E130" s="58">
+      <c r="E130" s="29">
         <v>45835</v>
       </c>
-      <c r="F130" s="55" t="s">
+      <c r="F130" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="G130" s="56">
+      <c r="G130" s="31">
         <v>0.375</v>
       </c>
-      <c r="H130" s="56">
+      <c r="H130" s="31">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I130" s="57">
-        <v>4</v>
-      </c>
-      <c r="J130" s="57">
+      <c r="I130" s="28">
+        <v>4</v>
+      </c>
+      <c r="J130" s="28">
         <f>SUM(I130)</f>
         <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="60"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="61"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="63"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="61"/>
-      <c r="J131" s="64"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="37"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="31">
+      <c r="B132" s="48">
         <v>45838</v>
       </c>
-      <c r="C132" s="31">
+      <c r="C132" s="48">
         <v>45842</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="3">
         <v>45838</v>
       </c>
-      <c r="F132" s="36"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="30"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
+      <c r="A133" s="50"/>
+      <c r="B133" s="48"/>
+      <c r="C133" s="48"/>
       <c r="D133" s="2"/>
       <c r="E133" s="3">
         <v>45839</v>
       </c>
-      <c r="F133" s="36"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="30"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
+      <c r="A134" s="50"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="48"/>
       <c r="D134" s="2"/>
       <c r="E134" s="3">
         <v>45840</v>
       </c>
-      <c r="F134" s="36"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
+      <c r="A135" s="50"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="48"/>
       <c r="D135" s="2"/>
       <c r="E135" s="3">
         <v>45841</v>
       </c>
-      <c r="F135" s="36"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
+      <c r="A136" s="50"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="48"/>
       <c r="D136" s="2"/>
       <c r="E136" s="3">
         <v>45842</v>
       </c>
-      <c r="F136" s="36"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="60"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="61"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="63"/>
-      <c r="G137" s="61"/>
-      <c r="H137" s="61"/>
-      <c r="I137" s="61"/>
-      <c r="J137" s="64"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="37"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
@@ -4529,19 +4534,19 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="65" t="s">
+      <c r="I139" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="J139" s="66">
+      <c r="J139" s="39">
         <f>SUM(J10:J136)</f>
         <v>238</v>
       </c>
@@ -4573,6 +4578,169 @@
     </row>
   </sheetData>
   <mergeCells count="187">
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="C103:C111"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="B113:B121"/>
+    <mergeCell ref="C113:C121"/>
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="A103:A111"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C52:C60"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A81:A91"/>
+    <mergeCell ref="B81:B91"/>
+    <mergeCell ref="C81:C91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="C62:C70"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
     <mergeCell ref="J123:J124"/>
     <mergeCell ref="J126:J127"/>
     <mergeCell ref="J128:J129"/>
@@ -4597,169 +4765,6 @@
     <mergeCell ref="J117:J118"/>
     <mergeCell ref="J119:J120"/>
     <mergeCell ref="E113:E114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="A81:A91"/>
-    <mergeCell ref="B81:B91"/>
-    <mergeCell ref="C81:C91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C52:C60"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="C62:C70"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B103:B111"/>
-    <mergeCell ref="C103:C111"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="B113:B121"/>
-    <mergeCell ref="C113:C121"/>
-    <mergeCell ref="C93:C101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="A103:A111"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J64:J65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="HORARIO!A1" display="h" xr:uid="{EFDDBB0B-55FA-4110-9F3F-30D0A2910B93}"/>
@@ -4769,6 +4774,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3693F933-BD63-41AD-99CB-CC4539C7E582}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="12" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45754</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45761</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45768</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45775</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45782</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45789</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45796</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45803</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45810</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45817</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45824</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45831</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45838</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2D762-DF27-4F0B-B330-C44DD5CEC6C8}">
   <dimension ref="A2:G13"/>
   <sheetViews>
@@ -4782,98 +4960,98 @@
     <col min="3" max="7" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="22">
         <v>0.375</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="22">
         <v>0.375</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="22">
         <v>0.375</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="22">
         <v>0.375</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="22">
         <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="40">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="C6" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6" s="22">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="22">
         <v>0.66666666666666696</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="22">
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="23" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="2">
@@ -4892,87 +5070,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:7" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="22">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="22">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="22">
         <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="22">
         <v>0.75</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="22">
         <v>0.75</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="22">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="23" t="s">
         <v>200</v>
       </c>
       <c r="C13" s="2">

--- a/ITINERARIO/Itinerario_Diario_Condor_Mateo_Ichthion_V2.xlsx
+++ b/ITINERARIO/Itinerario_Diario_Condor_Mateo_Ichthion_V2.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af6f98336ce5edb5/Documentos/Trabajo Ichthion/Documentos Pasantias/24421_PPP/ITINERARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="8_{D73B1CBD-5DA7-4C58-9D7C-EA115641B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E02798-20D4-4E13-82F4-B91FE853D35D}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="8_{D73B1CBD-5DA7-4C58-9D7C-EA115641B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8A7D52-F1CF-4821-8AFD-0DF6D6A4836C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E57DCB6-2645-4C44-BA25-F907BD27D6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVIDADES" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
-    <sheet name="HORARIO" sheetId="2" r:id="rId3"/>
+    <sheet name="HORARIO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="216">
   <si>
     <t>Fecha de inicio</t>
   </si>
@@ -903,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1110,12 +1109,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4774,183 +4767,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3693F933-BD63-41AD-99CB-CC4539C7E582}">
-  <dimension ref="B2:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="60.7109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45754</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45758</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45761</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45765</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45768</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45772</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45775</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45779</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45782</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45786</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45789</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45793</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45796</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45800</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45803</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45807</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45810</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45814</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45817</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45821</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45824</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45828</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45831</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45838</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45842</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2D762-DF27-4F0B-B330-C44DD5CEC6C8}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/ITINERARIO/Itinerario_Diario_Condor_Mateo_Ichthion_V2.xlsx
+++ b/ITINERARIO/Itinerario_Diario_Condor_Mateo_Ichthion_V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af6f98336ce5edb5/Documentos/Trabajo Ichthion/Documentos Pasantias/24421_PPP/ITINERARIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af6f98336ce5edb5/Documentos/Universidad/Documentos Pasantias/24421_PPP/ITINERARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="700" documentId="8_{D73B1CBD-5DA7-4C58-9D7C-EA115641B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8A7D52-F1CF-4821-8AFD-0DF6D6A4836C}"/>
+  <xr:revisionPtr revIDLastSave="1011" documentId="8_{D73B1CBD-5DA7-4C58-9D7C-EA115641B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C38D9A-9551-4CE4-9352-174B7CE9059B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E57DCB6-2645-4C44-BA25-F907BD27D6D1}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="17055" windowHeight="15585" xr2:uid="{6E57DCB6-2645-4C44-BA25-F907BD27D6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVIDADES" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="236">
   <si>
     <t>Fecha de inicio</t>
   </si>
@@ -688,7 +688,67 @@
     <t>ACTIVIDADES REALIZADAS EN LAS PASANTIAS</t>
   </si>
   <si>
-    <t>DIAS POR COLOR</t>
+    <t>Encargado</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>TUTOR EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>COMPLETADO</t>
+  </si>
+  <si>
+    <t>PASANTE</t>
+  </si>
+  <si>
+    <t>Inicio de pruebas funcionales generales</t>
+  </si>
+  <si>
+    <t>Pruebas por componente (vista principal)</t>
+  </si>
+  <si>
+    <t>Pruebas en vistas secundarias y navegación cruzada</t>
+  </si>
+  <si>
+    <t>Validaciones de interacción y rendimiento</t>
+  </si>
+  <si>
+    <t>Revisión final y checklist de cierre de pruebas</t>
+  </si>
+  <si>
+    <t>Ejecución de pruebas básicas de navegación y carga de vistas</t>
+  </si>
+  <si>
+    <t>Registro de bugs visuales y de comportamiento</t>
+  </si>
+  <si>
+    <t>Verificación de la vista principal: gráficos, filtros y etiquetas</t>
+  </si>
+  <si>
+    <t>Corrección de errores de visualización y comportamiento</t>
+  </si>
+  <si>
+    <t>Revisión de vistas por clase y subclase de residuos</t>
+  </si>
+  <si>
+    <t>Ajustes de navegación (retorno a vista anterior, flujo continuo)</t>
+  </si>
+  <si>
+    <t>Medición del tiempo de carga promedio por vista</t>
+  </si>
+  <si>
+    <t>Se identificaron cuellos de botella menores en gráficos con mayor cantidad de datos.</t>
+  </si>
+  <si>
+    <t>Se validó que todos los componentes estén presentes, operativos y visualmente consistentes.</t>
+  </si>
+  <si>
+    <t>Reunion sobre errores corregidos, mejoras aplicadas y puntos de mejora futuros.</t>
+  </si>
+  <si>
+    <t>COLOR / DIAS</t>
   </si>
 </sst>
 </file>
@@ -902,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -910,9 +970,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,15 +1012,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -976,9 +1024,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1012,12 +1057,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,78 +1076,132 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1132,10 +1225,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1455,3171 +1544,3804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C5C324-B7BC-4B86-9EE5-BF067769085A}">
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C132" sqref="B103:C136"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="13.42578125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="10" style="4" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="13.42578125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="10" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="52">
         <v>45754</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="52"/>
+      <c r="E3" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="52">
+        <v>45842</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="64"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="48">
-        <v>45842</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="27" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="52">
         <v>45754</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>45758</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="50">
         <v>45754</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0.375</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" s="45">
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="39">
         <f>SUM(I10:I11)</f>
         <v>4</v>
       </c>
+      <c r="K10" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="7" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
-      <c r="J11" s="45"/>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="46" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="49">
         <v>45755</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>0.375</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I12" s="9">
-        <v>4</v>
-      </c>
-      <c r="J12" s="46">
+      <c r="I12" s="8">
+        <v>4</v>
+      </c>
+      <c r="J12" s="40">
         <f>SUM(I12:I13)</f>
         <v>6</v>
       </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="11" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H13" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2</v>
-      </c>
-      <c r="J13" s="46"/>
+      <c r="H13" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="45" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="50">
         <v>45756</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>0.375</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I14" s="6">
-        <v>2</v>
-      </c>
-      <c r="J14" s="45">
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="39">
         <f>SUM(I14:I16)</f>
         <v>6</v>
       </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="7" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I15" s="6">
-        <v>2</v>
-      </c>
-      <c r="J15" s="45"/>
+      <c r="I15" s="5">
+        <v>2</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="7" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H16" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2</v>
-      </c>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="46" t="s">
+      <c r="H16" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="49">
         <v>45757</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>0.375</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I17" s="9">
-        <v>4</v>
-      </c>
-      <c r="J17" s="46">
+      <c r="I17" s="8">
+        <v>4</v>
+      </c>
+      <c r="J17" s="40">
         <f>SUM(I17:I18)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="11" t="s">
+      <c r="K17" s="51"/>
+      <c r="L17" s="65"/>
+    </row>
+    <row r="18" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H18" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2</v>
-      </c>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="63" t="s">
+      <c r="H18" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="54">
         <v>45758</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="26">
         <v>0.375</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I19" s="28">
-        <v>4</v>
-      </c>
-      <c r="J19" s="63">
+      <c r="I19" s="23">
+        <v>4</v>
+      </c>
+      <c r="J19" s="53">
         <f>SUM(I19:I20)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="30" t="s">
+      <c r="K19" s="51"/>
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H20" s="31">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I20" s="28">
-        <v>2</v>
-      </c>
-      <c r="J20" s="63"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="H20" s="26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="65"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="77"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="52">
         <v>45761</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="52">
         <v>45765</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="50">
         <v>45761</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>0.375</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I22" s="6">
-        <v>2</v>
-      </c>
-      <c r="J22" s="56">
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="39">
         <f>SUM(I22:I24)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="7" t="s">
+      <c r="K22" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I23" s="6">
-        <v>2</v>
-      </c>
-      <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="7" t="s">
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="39"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="67"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H24" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I24" s="6">
-        <v>2</v>
-      </c>
-      <c r="J24" s="57"/>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="58" t="s">
+      <c r="H24" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+      <c r="J24" s="39"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="67"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="49">
         <v>45762</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>0.375</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I25" s="9">
-        <v>4</v>
-      </c>
-      <c r="J25" s="58">
+      <c r="I25" s="8">
+        <v>4</v>
+      </c>
+      <c r="J25" s="40">
         <f>SUM(I25:I26)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="11" t="s">
+      <c r="K25" s="62"/>
+      <c r="L25" s="67"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H26" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I26" s="9">
-        <v>2</v>
-      </c>
-      <c r="J26" s="59"/>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="56" t="s">
+      <c r="H26" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="67"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="50">
         <v>45763</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>0.375</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I27" s="6">
-        <v>2</v>
-      </c>
-      <c r="J27" s="56">
+      <c r="I27" s="5">
+        <v>2</v>
+      </c>
+      <c r="J27" s="39">
         <f>SUM(I27:I28)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="7" t="s">
+      <c r="K27" s="62"/>
+      <c r="L27" s="67"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H28" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I28" s="6">
-        <v>4</v>
-      </c>
-      <c r="J28" s="57"/>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="13" t="s">
+      <c r="H28" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I28" s="5">
+        <v>4</v>
+      </c>
+      <c r="J28" s="39"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="68"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>45764</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <v>0</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="13" t="s">
+      <c r="K29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>45765</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <v>0</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="37"/>
-    </row>
-    <row r="32" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="K30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="77"/>
+    </row>
+    <row r="32" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="52">
         <v>45768</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="52">
         <v>45772</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="50">
         <v>45768</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I32" s="6">
-        <v>2</v>
-      </c>
-      <c r="J32" s="45">
+      <c r="I32" s="5">
+        <v>2</v>
+      </c>
+      <c r="J32" s="39">
         <f>SUM(I32:I33)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="7" t="s">
+      <c r="K32" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H33" s="7">
         <v>0.75</v>
       </c>
-      <c r="I33" s="6">
-        <v>2</v>
-      </c>
-      <c r="J33" s="45"/>
-    </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="9" t="s">
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
+      <c r="J33" s="39"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="65"/>
+    </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>45769</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>0.75</v>
       </c>
-      <c r="I34" s="9">
-        <v>4</v>
-      </c>
-      <c r="J34" s="9">
+      <c r="I34" s="8">
+        <v>4</v>
+      </c>
+      <c r="J34" s="8">
         <f>SUM(I34:I34)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="45" t="s">
+      <c r="K34" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" s="65"/>
+    </row>
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="50">
         <v>45770</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I35" s="6">
-        <v>2</v>
-      </c>
-      <c r="J35" s="45">
+      <c r="I35" s="5">
+        <v>2</v>
+      </c>
+      <c r="J35" s="39">
         <f>SUM(I35:I36)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="7" t="s">
+      <c r="K35" s="62"/>
+      <c r="L35" s="65"/>
+    </row>
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H36" s="7">
         <v>0.75</v>
       </c>
-      <c r="I36" s="6">
-        <v>2</v>
-      </c>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="46" t="s">
+      <c r="I36" s="5">
+        <v>2</v>
+      </c>
+      <c r="J36" s="39"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="49">
         <v>45771</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H37" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I37" s="9">
-        <v>2</v>
-      </c>
-      <c r="J37" s="46">
+      <c r="H37" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I37" s="8">
+        <v>2</v>
+      </c>
+      <c r="J37" s="40">
         <f>SUM(I37:I38)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="11" t="s">
+      <c r="K37" s="62"/>
+      <c r="L37" s="65"/>
+    </row>
+    <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H38" s="12">
+      <c r="G38" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H38" s="11">
         <v>0.75</v>
       </c>
-      <c r="I38" s="9">
-        <v>2</v>
-      </c>
-      <c r="J38" s="46"/>
-    </row>
-    <row r="39" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="63" t="s">
+      <c r="I38" s="8">
+        <v>2</v>
+      </c>
+      <c r="J38" s="40"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="54">
         <v>45772</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="26">
         <v>0.375</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="26">
         <v>0.5</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="23">
         <v>3</v>
       </c>
-      <c r="J39" s="63">
+      <c r="J39" s="53">
         <f>SUM(I39:I40)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="30" t="s">
+      <c r="K39" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="26">
         <v>0.5</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="23">
         <v>1</v>
       </c>
-      <c r="J40" s="63"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="37"/>
-    </row>
-    <row r="42" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="J40" s="53"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="65"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="52">
         <v>45775</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="52">
         <v>45779</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="50">
         <v>45775</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I42" s="6">
-        <v>2</v>
-      </c>
-      <c r="J42" s="45">
+      <c r="I42" s="5">
+        <v>2</v>
+      </c>
+      <c r="J42" s="39">
         <f>SUM(I42:I43)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="7" t="s">
+      <c r="K42" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="L42" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H43" s="8">
+      <c r="G43" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H43" s="7">
         <v>0.75</v>
       </c>
-      <c r="I43" s="6">
-        <v>2</v>
-      </c>
-      <c r="J43" s="45"/>
-    </row>
-    <row r="44" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="9" t="s">
+      <c r="I43" s="5">
+        <v>2</v>
+      </c>
+      <c r="J43" s="39"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="65"/>
+    </row>
+    <row r="44" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>45776</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>0.75</v>
       </c>
-      <c r="I44" s="9">
-        <v>4</v>
-      </c>
-      <c r="J44" s="9">
+      <c r="I44" s="8">
+        <v>4</v>
+      </c>
+      <c r="J44" s="8">
         <f>SUM(I44:I44)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="45" t="s">
+      <c r="K44" s="51"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="52">
+      <c r="E45" s="50">
         <v>45777</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I45" s="6">
-        <v>2</v>
-      </c>
-      <c r="J45" s="45">
+      <c r="I45" s="5">
+        <v>2</v>
+      </c>
+      <c r="J45" s="39">
         <f>SUM(I45:I47)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="7" t="s">
+      <c r="K45" s="51"/>
+      <c r="L45" s="65"/>
+    </row>
+    <row r="46" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H46" s="8">
+      <c r="G46" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H46" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>1</v>
       </c>
-      <c r="J46" s="45"/>
-    </row>
-    <row r="47" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="7" t="s">
+      <c r="J46" s="39"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="65"/>
+    </row>
+    <row r="47" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="7">
         <v>0.75</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>1</v>
       </c>
-      <c r="J47" s="45"/>
-    </row>
-    <row r="48" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="46" t="s">
+      <c r="J47" s="39"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="65"/>
+    </row>
+    <row r="48" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="49">
         <v>45778</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H48" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I48" s="9">
-        <v>2</v>
-      </c>
-      <c r="J48" s="46">
+      <c r="H48" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I48" s="8">
+        <v>2</v>
+      </c>
+      <c r="J48" s="40">
         <f>SUM(I48:I49)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="11" t="s">
+      <c r="K48" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="L48" s="65"/>
+    </row>
+    <row r="49" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H49" s="12">
+      <c r="G49" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H49" s="11">
         <v>0.75</v>
       </c>
-      <c r="I49" s="9">
-        <v>2</v>
-      </c>
-      <c r="J49" s="46"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="13" t="s">
+      <c r="I49" s="8">
+        <v>2</v>
+      </c>
+      <c r="J49" s="40"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="65"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <v>45779</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <v>0</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="37"/>
-    </row>
-    <row r="52" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+      <c r="K50" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="77"/>
+    </row>
+    <row r="52" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="48">
+      <c r="B52" s="52">
         <v>45782</v>
       </c>
-      <c r="C52" s="48">
+      <c r="C52" s="52">
         <v>45786</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="52">
+      <c r="E52" s="50">
         <v>45782</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F52" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I52" s="6">
-        <v>2</v>
-      </c>
-      <c r="J52" s="46">
+      <c r="I52" s="5">
+        <v>2</v>
+      </c>
+      <c r="J52" s="39">
         <f>SUM(I52:I53)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H53" s="8">
+      <c r="K52" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L52" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H53" s="7">
         <v>0.75</v>
       </c>
-      <c r="I53" s="6">
-        <v>2</v>
-      </c>
-      <c r="J53" s="46"/>
-    </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="46" t="s">
+      <c r="I53" s="5">
+        <v>2</v>
+      </c>
+      <c r="J53" s="39"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="65"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="53">
+      <c r="E54" s="49">
         <v>45783</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H54" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I54" s="9">
-        <v>2</v>
-      </c>
-      <c r="J54" s="46">
+      <c r="H54" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I54" s="8">
+        <v>2</v>
+      </c>
+      <c r="J54" s="40">
         <f>SUM(I54:I55)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="11" t="s">
+      <c r="K54" s="62"/>
+      <c r="L54" s="65"/>
+    </row>
+    <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H55" s="12">
+      <c r="G55" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H55" s="11">
         <v>0.75</v>
       </c>
-      <c r="I55" s="9">
-        <v>2</v>
-      </c>
-      <c r="J55" s="46"/>
-    </row>
-    <row r="56" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="45" t="s">
+      <c r="I55" s="8">
+        <v>2</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="65"/>
+    </row>
+    <row r="56" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="50">
         <v>45784</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I56" s="6">
-        <v>2</v>
-      </c>
-      <c r="J56" s="45">
+      <c r="I56" s="5">
+        <v>2</v>
+      </c>
+      <c r="J56" s="39">
         <f>SUM(I56:I57)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="7" t="s">
+      <c r="K56" s="62"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H57" s="8">
+      <c r="G57" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H57" s="7">
         <v>0.75</v>
       </c>
-      <c r="I57" s="6">
-        <v>2</v>
-      </c>
-      <c r="J57" s="45"/>
-    </row>
-    <row r="58" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="9" t="s">
+      <c r="I57" s="5">
+        <v>2</v>
+      </c>
+      <c r="J57" s="39"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="9">
         <v>45785</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>0.75</v>
       </c>
-      <c r="I58" s="9">
-        <v>4</v>
-      </c>
-      <c r="J58" s="9">
+      <c r="I58" s="8">
+        <v>4</v>
+      </c>
+      <c r="J58" s="8">
         <f>SUM(I58:I58)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="63" t="s">
+      <c r="K58" s="63"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="64">
+      <c r="E59" s="54">
         <v>45786</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="26">
         <v>0.375</v>
       </c>
-      <c r="H59" s="31">
+      <c r="H59" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I59" s="28">
-        <v>2</v>
-      </c>
-      <c r="J59" s="63">
+      <c r="I59" s="23">
+        <v>2</v>
+      </c>
+      <c r="J59" s="53">
         <f>SUM(I59:I60)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="30" t="s">
+      <c r="K59" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L59" s="65"/>
+    </row>
+    <row r="60" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G60" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H60" s="31">
+      <c r="H60" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I60" s="28">
-        <v>2</v>
-      </c>
-      <c r="J60" s="63"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="37"/>
-    </row>
-    <row r="62" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
+      <c r="I60" s="23">
+        <v>2</v>
+      </c>
+      <c r="J60" s="53"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="65"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="77"/>
+    </row>
+    <row r="62" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="48">
+      <c r="B62" s="52">
         <v>45789</v>
       </c>
-      <c r="C62" s="48">
+      <c r="C62" s="52">
         <v>45793</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="52">
+      <c r="E62" s="50">
         <v>45789</v>
       </c>
-      <c r="F62" s="62" t="s">
+      <c r="F62" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I62" s="6">
-        <v>2</v>
-      </c>
-      <c r="J62" s="45">
+      <c r="I62" s="5">
+        <v>2</v>
+      </c>
+      <c r="J62" s="39">
         <f>SUM(I62:I63)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H63" s="8">
+      <c r="K62" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L62" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H63" s="7">
         <v>0.75</v>
       </c>
-      <c r="I63" s="6">
-        <v>2</v>
-      </c>
-      <c r="J63" s="45"/>
-    </row>
-    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="46" t="s">
+      <c r="I63" s="5">
+        <v>2</v>
+      </c>
+      <c r="J63" s="39"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="65"/>
+    </row>
+    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="53">
+      <c r="E64" s="49">
         <v>45790</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H64" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I64" s="9">
-        <v>2</v>
-      </c>
-      <c r="J64" s="46">
+      <c r="H64" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I64" s="8">
+        <v>2</v>
+      </c>
+      <c r="J64" s="40">
         <f>SUM(I64:I65)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="11" t="s">
+      <c r="K64" s="62"/>
+      <c r="L64" s="65"/>
+    </row>
+    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G65" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H65" s="12">
+      <c r="G65" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H65" s="11">
         <v>0.75</v>
       </c>
-      <c r="I65" s="9">
-        <v>2</v>
-      </c>
-      <c r="J65" s="46"/>
-    </row>
-    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="45" t="s">
+      <c r="I65" s="8">
+        <v>2</v>
+      </c>
+      <c r="J65" s="40"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="65"/>
+    </row>
+    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="52">
+      <c r="E66" s="50">
         <v>45791</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I66" s="6">
-        <v>2</v>
-      </c>
-      <c r="J66" s="45">
+      <c r="I66" s="5">
+        <v>2</v>
+      </c>
+      <c r="J66" s="39">
         <f>SUM(I66:I67)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="7" t="s">
+      <c r="K66" s="62"/>
+      <c r="L66" s="65"/>
+    </row>
+    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G67" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H67" s="8">
+      <c r="G67" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H67" s="7">
         <v>0.75</v>
       </c>
-      <c r="I67" s="6">
-        <v>2</v>
-      </c>
-      <c r="J67" s="45"/>
-    </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="46" t="s">
+      <c r="I67" s="5">
+        <v>2</v>
+      </c>
+      <c r="J67" s="39"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="65"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="49">
         <v>45792</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H68" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I68" s="9">
-        <v>2</v>
-      </c>
-      <c r="J68" s="46">
+      <c r="H68" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I68" s="8">
+        <v>2</v>
+      </c>
+      <c r="J68" s="40">
         <f>SUM(I68:I69)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="11" t="s">
+      <c r="K68" s="62"/>
+      <c r="L68" s="65"/>
+    </row>
+    <row r="69" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G69" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H69" s="12">
+      <c r="G69" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H69" s="11">
         <v>0.75</v>
       </c>
-      <c r="I69" s="9">
-        <v>2</v>
-      </c>
-      <c r="J69" s="46"/>
-    </row>
-    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="28" t="s">
+      <c r="I69" s="8">
+        <v>2</v>
+      </c>
+      <c r="J69" s="40"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="65"/>
+    </row>
+    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E70" s="24">
         <v>45793</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G70" s="31">
+      <c r="G70" s="26">
         <v>0.375</v>
       </c>
-      <c r="H70" s="31">
+      <c r="H70" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I70" s="28">
-        <v>4</v>
-      </c>
-      <c r="J70" s="28">
+      <c r="I70" s="23">
+        <v>4</v>
+      </c>
+      <c r="J70" s="23">
         <f>SUM(I70)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="37"/>
-    </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="50" t="s">
+      <c r="K70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L70" s="65"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="77"/>
+    </row>
+    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="48">
+      <c r="B72" s="52">
         <v>45796</v>
       </c>
-      <c r="C72" s="48">
+      <c r="C72" s="52">
         <v>45800</v>
       </c>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="54">
+      <c r="E72" s="50">
         <v>45796</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I72" s="6">
-        <v>2</v>
-      </c>
-      <c r="J72" s="45">
+      <c r="I72" s="5">
+        <v>2</v>
+      </c>
+      <c r="J72" s="39">
         <f>SUM(I72:I73)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="7" t="s">
+      <c r="K72" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L72" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G73" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H73" s="8">
+      <c r="G73" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H73" s="7">
         <v>0.75</v>
       </c>
-      <c r="I73" s="6">
-        <v>2</v>
-      </c>
-      <c r="J73" s="45"/>
-    </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="58" t="s">
+      <c r="I73" s="5">
+        <v>2</v>
+      </c>
+      <c r="J73" s="39"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="67"/>
+    </row>
+    <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="60">
+      <c r="E74" s="49">
         <v>45797</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H74" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I74" s="9">
-        <v>2</v>
-      </c>
-      <c r="J74" s="46">
+      <c r="H74" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I74" s="8">
+        <v>2</v>
+      </c>
+      <c r="J74" s="40">
         <f>SUM(I74:I75)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="11" t="s">
+      <c r="K74" s="62"/>
+      <c r="L74" s="67"/>
+    </row>
+    <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H75" s="12">
+      <c r="G75" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H75" s="11">
         <v>0.75</v>
       </c>
-      <c r="I75" s="9">
-        <v>2</v>
-      </c>
-      <c r="J75" s="46"/>
-    </row>
-    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="56" t="s">
+      <c r="I75" s="8">
+        <v>2</v>
+      </c>
+      <c r="J75" s="40"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="67"/>
+    </row>
+    <row r="76" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="50">
         <v>45798</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I76" s="6">
-        <v>2</v>
-      </c>
-      <c r="J76" s="45">
+      <c r="I76" s="5">
+        <v>2</v>
+      </c>
+      <c r="J76" s="39">
         <f>SUM(I76:I77)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="7" t="s">
+      <c r="K76" s="62"/>
+      <c r="L76" s="67"/>
+    </row>
+    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G77" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H77" s="8">
+      <c r="G77" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H77" s="7">
         <v>0.75</v>
       </c>
-      <c r="I77" s="6">
-        <v>2</v>
-      </c>
-      <c r="J77" s="45"/>
-    </row>
-    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="9" t="s">
+      <c r="I77" s="5">
+        <v>2</v>
+      </c>
+      <c r="J77" s="39"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="67"/>
+    </row>
+    <row r="78" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="9">
         <v>45799</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="11">
         <v>0.75</v>
       </c>
-      <c r="I78" s="9">
-        <v>4</v>
-      </c>
-      <c r="J78" s="9">
+      <c r="I78" s="8">
+        <v>4</v>
+      </c>
+      <c r="J78" s="8">
         <f>SUM(I78:I78)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="13" t="s">
+      <c r="K78" s="63"/>
+      <c r="L78" s="68"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="13">
         <v>45800</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="F79" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="12">
         <v>0</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="37"/>
-    </row>
-    <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="50" t="s">
+      <c r="K79" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="77"/>
+    </row>
+    <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="48">
+      <c r="B81" s="52">
         <v>45803</v>
       </c>
-      <c r="C81" s="48">
+      <c r="C81" s="52">
         <v>45807</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E81" s="50">
         <v>45803</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I81" s="6">
-        <v>2</v>
-      </c>
-      <c r="J81" s="45">
+      <c r="I81" s="5">
+        <v>2</v>
+      </c>
+      <c r="J81" s="39">
         <f>SUM(I81:I83)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="7" t="s">
+      <c r="K81" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L81" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G82" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H82" s="8">
+      <c r="G82" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H82" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="5">
         <v>1</v>
       </c>
-      <c r="J82" s="45"/>
-    </row>
-    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="7" t="s">
+      <c r="J82" s="39"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="65"/>
+    </row>
+    <row r="83" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="51"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="7">
         <v>0.75</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="5">
         <v>1</v>
       </c>
-      <c r="J83" s="45"/>
-    </row>
-    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="46" t="s">
+      <c r="J83" s="39"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="65"/>
+    </row>
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="53">
+      <c r="E84" s="49">
         <v>45804</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H84" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I84" s="9">
-        <v>2</v>
-      </c>
-      <c r="J84" s="46">
+      <c r="H84" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I84" s="8">
+        <v>2</v>
+      </c>
+      <c r="J84" s="40">
         <f>SUM(I84:I85)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="11" t="s">
+      <c r="K84" s="62"/>
+      <c r="L84" s="65"/>
+    </row>
+    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="51"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G85" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H85" s="12">
+      <c r="G85" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H85" s="11">
         <v>0.75</v>
       </c>
-      <c r="I85" s="9">
-        <v>2</v>
-      </c>
-      <c r="J85" s="46"/>
-    </row>
-    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="45" t="s">
+      <c r="I85" s="8">
+        <v>2</v>
+      </c>
+      <c r="J85" s="40"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="65"/>
+    </row>
+    <row r="86" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="52">
+      <c r="E86" s="50">
         <v>45805</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I86" s="6">
-        <v>2</v>
-      </c>
-      <c r="J86" s="45">
+      <c r="I86" s="5">
+        <v>2</v>
+      </c>
+      <c r="J86" s="39">
         <f>SUM(I86:I87)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="7" t="s">
+      <c r="K86" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L86" s="65"/>
+    </row>
+    <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="51"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G87" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H87" s="8">
+      <c r="G87" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H87" s="7">
         <v>0.75</v>
       </c>
-      <c r="I87" s="6">
-        <v>2</v>
-      </c>
-      <c r="J87" s="45"/>
-    </row>
-    <row r="88" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="46" t="s">
+      <c r="I87" s="5">
+        <v>2</v>
+      </c>
+      <c r="J87" s="39"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="65"/>
+    </row>
+    <row r="88" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="E88" s="53">
+      <c r="E88" s="49">
         <v>45806</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H88" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I88" s="9">
-        <v>2</v>
-      </c>
-      <c r="J88" s="46">
+      <c r="H88" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I88" s="8">
+        <v>2</v>
+      </c>
+      <c r="J88" s="40">
         <f>SUM(I88:I89)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="11" t="s">
+      <c r="K88" s="62"/>
+      <c r="L88" s="65"/>
+    </row>
+    <row r="89" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G89" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H89" s="12">
+      <c r="G89" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H89" s="11">
         <v>0.75</v>
       </c>
-      <c r="I89" s="9">
-        <v>2</v>
-      </c>
-      <c r="J89" s="46"/>
-    </row>
-    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="63" t="s">
+      <c r="I89" s="8">
+        <v>2</v>
+      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="63"/>
+      <c r="L89" s="65"/>
+    </row>
+    <row r="90" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="51"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E90" s="64">
+      <c r="E90" s="54">
         <v>45807</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G90" s="31">
+      <c r="G90" s="26">
         <v>0.375</v>
       </c>
-      <c r="H90" s="31">
+      <c r="H90" s="26">
         <v>0.5</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="23">
         <v>3</v>
       </c>
-      <c r="J90" s="63">
+      <c r="J90" s="53">
         <f>SUM(I90:I91)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="30" t="s">
+      <c r="K90" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L90" s="65"/>
+    </row>
+    <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G91" s="31">
+      <c r="G91" s="26">
         <v>0.5</v>
       </c>
-      <c r="H91" s="31">
+      <c r="H91" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I91" s="28">
+      <c r="I91" s="23">
         <v>1</v>
       </c>
-      <c r="J91" s="63"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="37"/>
-    </row>
-    <row r="93" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50" t="s">
+      <c r="J91" s="53"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="65"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="77"/>
+    </row>
+    <row r="93" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="48">
+      <c r="B93" s="52">
         <v>45810</v>
       </c>
-      <c r="C93" s="48">
+      <c r="C93" s="52">
         <v>45814</v>
       </c>
-      <c r="D93" s="45" t="s">
+      <c r="D93" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E93" s="52">
+      <c r="E93" s="50">
         <v>45810</v>
       </c>
-      <c r="F93" s="62" t="s">
+      <c r="F93" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I93" s="6">
-        <v>2</v>
-      </c>
-      <c r="J93" s="45">
+      <c r="I93" s="5">
+        <v>2</v>
+      </c>
+      <c r="J93" s="39">
         <f>SUM(I93:I94)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="50"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H94" s="8">
+      <c r="K93" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L93" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H94" s="7">
         <v>0.75</v>
       </c>
-      <c r="I94" s="6">
-        <v>2</v>
-      </c>
-      <c r="J94" s="45"/>
-    </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="46" t="s">
+      <c r="I94" s="5">
+        <v>2</v>
+      </c>
+      <c r="J94" s="39"/>
+      <c r="K94" s="62"/>
+      <c r="L94" s="65"/>
+    </row>
+    <row r="95" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="51"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E95" s="53">
+      <c r="E95" s="49">
         <v>45811</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H95" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I95" s="9">
-        <v>2</v>
-      </c>
-      <c r="J95" s="46">
+      <c r="H95" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I95" s="8">
+        <v>2</v>
+      </c>
+      <c r="J95" s="40">
         <f>SUM(I95:I96)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="11" t="s">
+      <c r="K95" s="62"/>
+      <c r="L95" s="65"/>
+    </row>
+    <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="51"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G96" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H96" s="12">
+      <c r="G96" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H96" s="11">
         <v>0.75</v>
       </c>
-      <c r="I96" s="9">
-        <v>2</v>
-      </c>
-      <c r="J96" s="46"/>
-    </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="45" t="s">
+      <c r="I96" s="8">
+        <v>2</v>
+      </c>
+      <c r="J96" s="40"/>
+      <c r="K96" s="62"/>
+      <c r="L96" s="65"/>
+    </row>
+    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="51"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="50">
         <v>45812</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I97" s="6">
-        <v>2</v>
-      </c>
-      <c r="J97" s="45">
+      <c r="I97" s="5">
+        <v>2</v>
+      </c>
+      <c r="J97" s="39">
         <f>SUM(I97:I98)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="7" t="s">
+      <c r="K97" s="62"/>
+      <c r="L97" s="65"/>
+    </row>
+    <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="51"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G98" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H98" s="8">
+      <c r="G98" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H98" s="7">
         <v>0.75</v>
       </c>
-      <c r="I98" s="6">
-        <v>2</v>
-      </c>
-      <c r="J98" s="45"/>
-    </row>
-    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="46" t="s">
+      <c r="I98" s="5">
+        <v>2</v>
+      </c>
+      <c r="J98" s="39"/>
+      <c r="K98" s="62"/>
+      <c r="L98" s="65"/>
+    </row>
+    <row r="99" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="51"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="E99" s="53">
+      <c r="E99" s="49">
         <v>45813</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H99" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I99" s="9">
-        <v>2</v>
-      </c>
-      <c r="J99" s="46">
+      <c r="H99" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I99" s="8">
+        <v>2</v>
+      </c>
+      <c r="J99" s="40">
         <f>SUM(I99:I100)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="50"/>
-      <c r="B100" s="48"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="11" t="s">
+      <c r="K99" s="62"/>
+      <c r="L99" s="65"/>
+    </row>
+    <row r="100" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="51"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G100" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H100" s="12">
+      <c r="G100" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H100" s="11">
         <v>0.75</v>
       </c>
-      <c r="I100" s="9">
-        <v>2</v>
-      </c>
-      <c r="J100" s="46"/>
-    </row>
-    <row r="101" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="28" t="s">
+      <c r="I100" s="8">
+        <v>2</v>
+      </c>
+      <c r="J100" s="40"/>
+      <c r="K100" s="63"/>
+      <c r="L100" s="65"/>
+    </row>
+    <row r="101" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="51"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E101" s="29">
+      <c r="E101" s="24">
         <v>45814</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G101" s="31">
+      <c r="G101" s="26">
         <v>0.375</v>
       </c>
-      <c r="H101" s="31">
+      <c r="H101" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I101" s="28">
-        <v>4</v>
-      </c>
-      <c r="J101" s="28">
+      <c r="I101" s="23">
+        <v>4</v>
+      </c>
+      <c r="J101" s="23">
         <f>SUM(I101)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="37"/>
-    </row>
-    <row r="103" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="50" t="s">
+      <c r="K101" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L101" s="65"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="77"/>
+    </row>
+    <row r="103" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="48">
+      <c r="B103" s="52">
         <v>45817</v>
       </c>
-      <c r="C103" s="48">
+      <c r="C103" s="52">
         <v>45821</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="52">
+      <c r="E103" s="50">
         <v>45817</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H103" s="8">
+      <c r="H103" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I103" s="6">
-        <v>2</v>
-      </c>
-      <c r="J103" s="45">
+      <c r="I103" s="5">
+        <v>2</v>
+      </c>
+      <c r="J103" s="39">
         <f>SUM(I103:I104)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="50"/>
-      <c r="B104" s="48"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="7" t="s">
+      <c r="K103" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L103" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="51"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G104" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H104" s="8">
+      <c r="G104" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H104" s="7">
         <v>0.75</v>
       </c>
-      <c r="I104" s="6">
-        <v>2</v>
-      </c>
-      <c r="J104" s="45"/>
-    </row>
-    <row r="105" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="46" t="s">
+      <c r="I104" s="5">
+        <v>2</v>
+      </c>
+      <c r="J104" s="39"/>
+      <c r="K104" s="62"/>
+      <c r="L104" s="65"/>
+    </row>
+    <row r="105" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="51"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E105" s="53">
+      <c r="E105" s="49">
         <v>45818</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H105" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I105" s="9">
-        <v>2</v>
-      </c>
-      <c r="J105" s="46">
+      <c r="H105" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I105" s="8">
+        <v>2</v>
+      </c>
+      <c r="J105" s="40">
         <f>SUM(I105:I106)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="11" t="s">
+      <c r="K105" s="62"/>
+      <c r="L105" s="65"/>
+    </row>
+    <row r="106" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="51"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G106" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H106" s="12">
+      <c r="G106" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H106" s="11">
         <v>0.75</v>
       </c>
-      <c r="I106" s="9">
-        <v>2</v>
-      </c>
-      <c r="J106" s="46"/>
-    </row>
-    <row r="107" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="45" t="s">
+      <c r="I106" s="8">
+        <v>2</v>
+      </c>
+      <c r="J106" s="40"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="65"/>
+    </row>
+    <row r="107" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="51"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E107" s="52">
+      <c r="E107" s="50">
         <v>45819</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H107" s="8">
+      <c r="H107" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I107" s="6">
-        <v>2</v>
-      </c>
-      <c r="J107" s="45">
+      <c r="I107" s="5">
+        <v>2</v>
+      </c>
+      <c r="J107" s="39">
         <f>SUM(I107:I108)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="50"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="7" t="s">
+      <c r="K107" s="62"/>
+      <c r="L107" s="65"/>
+    </row>
+    <row r="108" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="51"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G108" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H108" s="8">
+      <c r="G108" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H108" s="7">
         <v>0.75</v>
       </c>
-      <c r="I108" s="6">
-        <v>2</v>
-      </c>
-      <c r="J108" s="45"/>
-    </row>
-    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="50"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="46" t="s">
+      <c r="I108" s="5">
+        <v>2</v>
+      </c>
+      <c r="J108" s="39"/>
+      <c r="K108" s="62"/>
+      <c r="L108" s="65"/>
+    </row>
+    <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="51"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E109" s="53">
+      <c r="E109" s="49">
         <v>45820</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H109" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I109" s="9">
-        <v>2</v>
-      </c>
-      <c r="J109" s="46">
+      <c r="H109" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I109" s="8">
+        <v>2</v>
+      </c>
+      <c r="J109" s="40">
         <f>SUM(I109:I110)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="50"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="11" t="s">
+      <c r="K109" s="62"/>
+      <c r="L109" s="65"/>
+    </row>
+    <row r="110" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="51"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G110" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H110" s="12">
+      <c r="G110" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H110" s="11">
         <v>0.75</v>
       </c>
-      <c r="I110" s="9">
-        <v>2</v>
-      </c>
-      <c r="J110" s="46"/>
-    </row>
-    <row r="111" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="28" t="s">
+      <c r="I110" s="8">
+        <v>2</v>
+      </c>
+      <c r="J110" s="40"/>
+      <c r="K110" s="63"/>
+      <c r="L110" s="65"/>
+    </row>
+    <row r="111" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="51"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E111" s="29">
+      <c r="E111" s="24">
         <v>45821</v>
       </c>
-      <c r="F111" s="30" t="s">
+      <c r="F111" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G111" s="31">
+      <c r="G111" s="26">
         <v>0.375</v>
       </c>
-      <c r="H111" s="31">
+      <c r="H111" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I111" s="28">
-        <v>4</v>
-      </c>
-      <c r="J111" s="28">
+      <c r="I111" s="23">
+        <v>4</v>
+      </c>
+      <c r="J111" s="23">
         <f>SUM(I111)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="37"/>
-    </row>
-    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="50" t="s">
+      <c r="K111" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L111" s="65"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="77"/>
+    </row>
+    <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="48">
+      <c r="B113" s="52">
         <v>45824</v>
       </c>
-      <c r="C113" s="48">
+      <c r="C113" s="52">
         <v>45828</v>
       </c>
-      <c r="D113" s="56" t="s">
+      <c r="D113" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="54">
+      <c r="E113" s="50">
         <v>45824</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H113" s="8">
+      <c r="H113" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I113" s="6">
-        <v>2</v>
-      </c>
-      <c r="J113" s="45">
+      <c r="I113" s="5">
+        <v>2</v>
+      </c>
+      <c r="J113" s="39">
         <f>SUM(I113:I114)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="50"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="7" t="s">
+      <c r="K113" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L113" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="51"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G114" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H114" s="8">
+      <c r="G114" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H114" s="7">
         <v>0.75</v>
       </c>
-      <c r="I114" s="6">
-        <v>2</v>
-      </c>
-      <c r="J114" s="45"/>
-    </row>
-    <row r="115" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="50"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="58" t="s">
+      <c r="I114" s="5">
+        <v>2</v>
+      </c>
+      <c r="J114" s="39"/>
+      <c r="K114" s="62"/>
+      <c r="L114" s="65"/>
+    </row>
+    <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="51"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E115" s="60">
+      <c r="E115" s="49">
         <v>45825</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H115" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I115" s="9">
-        <v>2</v>
-      </c>
-      <c r="J115" s="46">
+      <c r="H115" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I115" s="8">
+        <v>2</v>
+      </c>
+      <c r="J115" s="40">
         <f>SUM(I115:I116)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="50"/>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="59"/>
-      <c r="E116" s="61"/>
-      <c r="F116" s="11" t="s">
+      <c r="K115" s="62"/>
+      <c r="L115" s="65"/>
+    </row>
+    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="51"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G116" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H116" s="12">
+      <c r="G116" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H116" s="11">
         <v>0.75</v>
       </c>
-      <c r="I116" s="9">
-        <v>2</v>
-      </c>
-      <c r="J116" s="46"/>
-    </row>
-    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="50"/>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="56" t="s">
+      <c r="I116" s="8">
+        <v>2</v>
+      </c>
+      <c r="J116" s="40"/>
+      <c r="K116" s="62"/>
+      <c r="L116" s="65"/>
+    </row>
+    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="51"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E117" s="54">
+      <c r="E117" s="50">
         <v>45826</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H117" s="8">
+      <c r="H117" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I117" s="6">
-        <v>2</v>
-      </c>
-      <c r="J117" s="45">
+      <c r="I117" s="5">
+        <v>2</v>
+      </c>
+      <c r="J117" s="39">
         <f>SUM(I117:I118)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="50"/>
-      <c r="B118" s="48"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="7" t="s">
+      <c r="K117" s="62"/>
+      <c r="L117" s="65"/>
+    </row>
+    <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="51"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G118" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H118" s="8">
+      <c r="G118" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H118" s="7">
         <v>0.75</v>
       </c>
-      <c r="I118" s="6">
-        <v>2</v>
-      </c>
-      <c r="J118" s="45"/>
-    </row>
-    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="50"/>
-      <c r="B119" s="48"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="58" t="s">
+      <c r="I118" s="5">
+        <v>2</v>
+      </c>
+      <c r="J118" s="39"/>
+      <c r="K118" s="62"/>
+      <c r="L118" s="65"/>
+    </row>
+    <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="51"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="E119" s="60">
+      <c r="E119" s="49">
         <v>45827</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H119" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I119" s="9">
-        <v>2</v>
-      </c>
-      <c r="J119" s="46">
+      <c r="H119" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I119" s="8">
+        <v>2</v>
+      </c>
+      <c r="J119" s="40">
         <f>SUM(I119:I120)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="50"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="59"/>
-      <c r="E120" s="61"/>
-      <c r="F120" s="11" t="s">
+      <c r="K119" s="62"/>
+      <c r="L119" s="65"/>
+    </row>
+    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="51"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="G120" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H120" s="12">
+      <c r="G120" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H120" s="11">
         <v>0.75</v>
       </c>
-      <c r="I120" s="9">
-        <v>2</v>
-      </c>
-      <c r="J120" s="46"/>
-    </row>
-    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="50"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="28" t="s">
+      <c r="I120" s="8">
+        <v>2</v>
+      </c>
+      <c r="J120" s="40"/>
+      <c r="K120" s="63"/>
+      <c r="L120" s="65"/>
+    </row>
+    <row r="121" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="51"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E121" s="29">
+      <c r="E121" s="24">
         <v>45828</v>
       </c>
-      <c r="F121" s="30" t="s">
+      <c r="F121" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G121" s="31">
+      <c r="G121" s="26">
         <v>0.375</v>
       </c>
-      <c r="H121" s="31">
+      <c r="H121" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I121" s="28">
-        <v>4</v>
-      </c>
-      <c r="J121" s="28">
+      <c r="I121" s="23">
+        <v>4</v>
+      </c>
+      <c r="J121" s="23">
         <f>SUM(I121)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="33"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="37"/>
-    </row>
-    <row r="123" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="50" t="s">
+      <c r="K121" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L121" s="65"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="77"/>
+    </row>
+    <row r="123" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="48">
+      <c r="B123" s="52">
         <v>45831</v>
       </c>
-      <c r="C123" s="48">
+      <c r="C123" s="52">
         <v>45835</v>
       </c>
-      <c r="D123" s="45" t="s">
+      <c r="D123" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E123" s="52">
+      <c r="E123" s="50">
         <v>45831</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H123" s="8">
+      <c r="H123" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I123" s="6">
-        <v>2</v>
-      </c>
-      <c r="J123" s="45">
+      <c r="I123" s="5">
+        <v>2</v>
+      </c>
+      <c r="J123" s="39">
         <f>SUM(I123:I124)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="50"/>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="7" t="s">
+      <c r="K123" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L123" s="65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="51"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G124" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H124" s="8">
+      <c r="G124" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H124" s="7">
         <v>0.75</v>
       </c>
-      <c r="I124" s="6">
-        <v>2</v>
-      </c>
-      <c r="J124" s="45"/>
-    </row>
-    <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="9" t="s">
+      <c r="I124" s="5">
+        <v>2</v>
+      </c>
+      <c r="J124" s="39"/>
+      <c r="K124" s="62"/>
+      <c r="L124" s="65"/>
+    </row>
+    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="51"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="9">
         <v>45832</v>
       </c>
-      <c r="F125" s="11" t="s">
+      <c r="F125" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="11">
         <v>0.75</v>
       </c>
-      <c r="I125" s="9">
-        <v>4</v>
-      </c>
-      <c r="J125" s="9">
+      <c r="I125" s="8">
+        <v>4</v>
+      </c>
+      <c r="J125" s="8">
         <f>SUM(I125)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="45" t="s">
+      <c r="K125" s="62"/>
+      <c r="L125" s="65"/>
+    </row>
+    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="51"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="E126" s="52">
+      <c r="E126" s="50">
         <v>45833</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H126" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I126" s="6">
-        <v>2</v>
-      </c>
-      <c r="J126" s="45">
+      <c r="I126" s="5">
+        <v>2</v>
+      </c>
+      <c r="J126" s="39">
         <f>SUM(I126:I127)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="7" t="s">
+      <c r="K126" s="62"/>
+      <c r="L126" s="65"/>
+    </row>
+    <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="51"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G127" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H127" s="8">
+      <c r="G127" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H127" s="7">
         <v>0.75</v>
       </c>
-      <c r="I127" s="6">
-        <v>2</v>
-      </c>
-      <c r="J127" s="45"/>
-    </row>
-    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="46" t="s">
+      <c r="I127" s="5">
+        <v>2</v>
+      </c>
+      <c r="J127" s="39"/>
+      <c r="K127" s="62"/>
+      <c r="L127" s="65"/>
+    </row>
+    <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="51"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="E128" s="53">
+      <c r="E128" s="49">
         <v>45834</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G128" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H128" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I128" s="9">
-        <v>2</v>
-      </c>
-      <c r="J128" s="46">
+      <c r="H128" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I128" s="8">
+        <v>2</v>
+      </c>
+      <c r="J128" s="40">
         <f>SUM(I128:I129)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="11" t="s">
+      <c r="K128" s="62"/>
+      <c r="L128" s="65"/>
+    </row>
+    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="51"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G129" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H129" s="12">
+      <c r="G129" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H129" s="11">
         <v>0.75</v>
       </c>
-      <c r="I129" s="9">
-        <v>2</v>
-      </c>
-      <c r="J129" s="46"/>
-    </row>
-    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
-      <c r="B130" s="48"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="28" t="s">
+      <c r="I129" s="8">
+        <v>2</v>
+      </c>
+      <c r="J129" s="40"/>
+      <c r="K129" s="62"/>
+      <c r="L129" s="65"/>
+    </row>
+    <row r="130" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="51"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E130" s="29">
+      <c r="E130" s="24">
         <v>45835</v>
       </c>
-      <c r="F130" s="30" t="s">
+      <c r="F130" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G130" s="31">
+      <c r="G130" s="26">
         <v>0.375</v>
       </c>
-      <c r="H130" s="31">
+      <c r="H130" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I130" s="28">
-        <v>4</v>
-      </c>
-      <c r="J130" s="28">
+      <c r="I130" s="23">
+        <v>4</v>
+      </c>
+      <c r="J130" s="23">
         <f>SUM(I130)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="33"/>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="37"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="50" t="s">
+      <c r="K130" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L130" s="65"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="77"/>
+    </row>
+    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="48">
+      <c r="B132" s="52">
         <v>45838</v>
       </c>
-      <c r="C132" s="48">
+      <c r="C132" s="52">
         <v>45842</v>
       </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="3">
+      <c r="D132" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E132" s="43">
         <v>45838</v>
       </c>
-      <c r="F132" s="18"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="50"/>
-      <c r="B133" s="48"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="3">
+      <c r="F132" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G132" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H132" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I132" s="5">
+        <v>2</v>
+      </c>
+      <c r="J132" s="39">
+        <f>SUM(I132:I133)</f>
+        <v>4</v>
+      </c>
+      <c r="K132" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L132" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="51"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G133" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H133" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I133" s="5">
+        <v>2</v>
+      </c>
+      <c r="J133" s="39"/>
+      <c r="K133" s="62"/>
+      <c r="L133" s="67"/>
+    </row>
+    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="51"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E134" s="47">
         <v>45839</v>
       </c>
-      <c r="F133" s="18"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="50"/>
-      <c r="B134" s="48"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="3">
+      <c r="F134" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G134" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I134" s="8">
+        <v>2</v>
+      </c>
+      <c r="J134" s="40">
+        <f>SUM(I134:I135)</f>
+        <v>4</v>
+      </c>
+      <c r="K134" s="62"/>
+      <c r="L134" s="67"/>
+    </row>
+    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="51"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G135" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H135" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I135" s="8">
+        <v>2</v>
+      </c>
+      <c r="J135" s="40"/>
+      <c r="K135" s="62"/>
+      <c r="L135" s="67"/>
+    </row>
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="51"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" s="43">
         <v>45840</v>
       </c>
-      <c r="F134" s="18"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="2"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
-      <c r="B135" s="48"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="3">
+      <c r="F136" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G136" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H136" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I136" s="5">
+        <v>2</v>
+      </c>
+      <c r="J136" s="39">
+        <f>SUM(I136:I137)</f>
+        <v>4</v>
+      </c>
+      <c r="K136" s="62"/>
+      <c r="L136" s="67"/>
+    </row>
+    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="51"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G137" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H137" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I137" s="5">
+        <v>2</v>
+      </c>
+      <c r="J137" s="39"/>
+      <c r="K137" s="62"/>
+      <c r="L137" s="67"/>
+    </row>
+    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="51"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E138" s="47">
         <v>45841</v>
       </c>
-      <c r="F135" s="18"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="2"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="50"/>
-      <c r="B136" s="48"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="3">
+      <c r="F138" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G138" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H138" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I138" s="8">
+        <v>2</v>
+      </c>
+      <c r="J138" s="40">
+        <f>SUM(I138:I139)</f>
+        <v>4</v>
+      </c>
+      <c r="K138" s="62"/>
+      <c r="L138" s="67"/>
+    </row>
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="51"/>
+      <c r="B139" s="52"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G139" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H139" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I139" s="8">
+        <v>2</v>
+      </c>
+      <c r="J139" s="40"/>
+      <c r="K139" s="63"/>
+      <c r="L139" s="67"/>
+    </row>
+    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="51"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="E140" s="71">
         <v>45842</v>
       </c>
-      <c r="F136" s="18"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="33"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="37"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="3">
-        <v>45845</v>
-      </c>
-      <c r="C138" s="3">
-        <v>45849</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-    </row>
-    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="38" t="s">
+      <c r="F140" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G140" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="H140" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I140" s="23">
+        <v>3</v>
+      </c>
+      <c r="J140" s="53">
+        <f>SUM(I140:I141)</f>
+        <v>4</v>
+      </c>
+      <c r="K140" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L140" s="67"/>
+    </row>
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="51"/>
+      <c r="B141" s="69"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="G141" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="H141" s="75">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I141" s="76">
+        <v>1</v>
+      </c>
+      <c r="J141" s="70"/>
+      <c r="K141" s="62"/>
+      <c r="L141" s="67"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="28"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="77"/>
+    </row>
+    <row r="143" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="4"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="J139" s="39">
-        <f>SUM(J10:J136)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L143" s="32">
+        <f>SUM(J10:J141)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="187">
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B103:B111"/>
-    <mergeCell ref="C103:C111"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="B113:B121"/>
-    <mergeCell ref="C113:C121"/>
-    <mergeCell ref="C93:C101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="A103:A111"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C52:C60"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
+  <mergeCells count="235">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="K123:K129"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="L132:L141"/>
+    <mergeCell ref="K132:K139"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L123:L130"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K22:K28"/>
+    <mergeCell ref="L22:L28"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L42:L49"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K52:K58"/>
+    <mergeCell ref="K62:K69"/>
+    <mergeCell ref="L72:L78"/>
+    <mergeCell ref="K72:K78"/>
+    <mergeCell ref="K81:K85"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K103:K110"/>
+    <mergeCell ref="K113:K120"/>
+    <mergeCell ref="K93:K100"/>
+    <mergeCell ref="L93:L101"/>
+    <mergeCell ref="L103:L111"/>
+    <mergeCell ref="L113:L121"/>
+    <mergeCell ref="L52:L60"/>
+    <mergeCell ref="L62:L70"/>
+    <mergeCell ref="L81:L91"/>
+    <mergeCell ref="K10:K20"/>
+    <mergeCell ref="L10:L20"/>
+    <mergeCell ref="L32:L40"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="C123:C130"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="C81:C91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="C62:C70"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="J45:J47"/>
     <mergeCell ref="J48:J49"/>
@@ -4644,120 +5366,57 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C52:C60"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="C132:C141"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="C103:C111"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="B113:B121"/>
+    <mergeCell ref="C113:C121"/>
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="A103:A111"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
     <mergeCell ref="A81:A91"/>
     <mergeCell ref="B81:B91"/>
-    <mergeCell ref="C81:C91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="C62:C70"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="B123:B130"/>
-    <mergeCell ref="C123:C130"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="E64:E65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="HORARIO!A1" display="h" xr:uid="{EFDDBB0B-55FA-4110-9F3F-30D0A2910B93}"/>
@@ -4770,7 +5429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2D762-DF27-4F0B-B330-C44DD5CEC6C8}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4782,96 +5441,96 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>0.375</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>0.375</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>0.375</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>0.375</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="22">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="C6" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6" s="18">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>0.66666666666666696</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="18">
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="2">
@@ -4892,85 +5551,85 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>0.75</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>0.75</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="18">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>200</v>
       </c>
       <c r="C13" s="2">

--- a/ITINERARIO/Itinerario_Diario_Condor_Mateo_Ichthion_V2.xlsx
+++ b/ITINERARIO/Itinerario_Diario_Condor_Mateo_Ichthion_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af6f98336ce5edb5/Documentos/Universidad/Documentos Pasantias/24421_PPP/ITINERARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1011" documentId="8_{D73B1CBD-5DA7-4C58-9D7C-EA115641B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C38D9A-9551-4CE4-9352-174B7CE9059B}"/>
+  <xr:revisionPtr revIDLastSave="1092" documentId="8_{D73B1CBD-5DA7-4C58-9D7C-EA115641B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4973CCB0-D51D-458E-A87B-52F3F09EF503}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17055" windowHeight="15585" xr2:uid="{6E57DCB6-2645-4C44-BA25-F907BD27D6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E57DCB6-2645-4C44-BA25-F907BD27D6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVIDADES" sheetId="1" r:id="rId1"/>
@@ -1075,62 +1075,125 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1139,69 +1202,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1225,6 +1225,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1546,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C5C324-B7BC-4B86-9EE5-BF067769085A}">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,24 +1564,24 @@
     <col min="7" max="8" width="13.42578125" style="3" customWidth="1"/>
     <col min="9" max="10" width="10" style="3" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="60" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
@@ -1595,23 +1599,23 @@
       <c r="A3" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="70">
         <v>45754</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="E3" s="56" t="s">
+      <c r="C3" s="70"/>
+      <c r="E3" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="70">
         <v>45842</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="70"/>
       <c r="E4" s="33"/>
       <c r="F4" s="34" t="s">
         <v>209</v>
@@ -1621,10 +1625,10 @@
       <c r="A5" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="E5" s="35"/>
       <c r="F5" s="34" t="s">
         <v>207</v>
@@ -1634,10 +1638,10 @@
       <c r="A6" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="69"/>
       <c r="E6" s="36"/>
       <c r="F6" s="34" t="s">
         <v>210</v>
@@ -1647,10 +1651,10 @@
       <c r="A7" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="3"/>
       <c r="E7" s="37"/>
       <c r="F7" s="34" t="s">
@@ -1661,7 +1665,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="64"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
@@ -1702,19 +1706,19 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="70">
         <v>45754</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="70">
         <v>45758</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="73">
         <v>45754</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1729,23 +1733,23 @@
       <c r="I10" s="5">
         <v>2</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="61">
         <f>SUM(I10:I11)</f>
         <v>4</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="50"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1758,18 +1762,18 @@
       <c r="I11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="65"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="67"/>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="40" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="74">
         <v>45755</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1784,19 +1788,19 @@
       <c r="I12" s="8">
         <v>4</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="63">
         <f>SUM(I12:I13)</f>
         <v>6</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="65"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="49"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="10" t="s">
         <v>29</v>
       </c>
@@ -1809,18 +1813,18 @@
       <c r="I13" s="8">
         <v>2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="65"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="67"/>
     </row>
     <row r="14" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="39" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="73">
         <v>45756</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1835,19 +1839,19 @@
       <c r="I14" s="5">
         <v>2</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="61">
         <f>SUM(I14:I16)</f>
         <v>6</v>
       </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="65"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="67"/>
     </row>
     <row r="15" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1860,16 +1864,16 @@
       <c r="I15" s="5">
         <v>2</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="65"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="50"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="6" t="s">
         <v>35</v>
       </c>
@@ -1882,18 +1886,18 @@
       <c r="I16" s="5">
         <v>2</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="65"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="67"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="40" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="74">
         <v>45757</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -1908,19 +1912,19 @@
       <c r="I17" s="8">
         <v>4</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="63">
         <f>SUM(I17:I18)</f>
         <v>6</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="65"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="49"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="10" t="s">
         <v>182</v>
       </c>
@@ -1933,18 +1937,18 @@
       <c r="I18" s="8">
         <v>2</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="65"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="76">
         <v>45758</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -1959,19 +1963,19 @@
       <c r="I19" s="23">
         <v>4</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="62">
         <f>SUM(I19:I20)</f>
         <v>6</v>
       </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="65"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="25" t="s">
         <v>181</v>
       </c>
@@ -1984,9 +1988,9 @@
       <c r="I20" s="23">
         <v>2</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="65"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
@@ -2000,22 +2004,22 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="77"/>
+      <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="70">
         <v>45761</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="70">
         <v>45765</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="73">
         <v>45761</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2030,23 +2034,23 @@
       <c r="I22" s="5">
         <v>2</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="61">
         <f>SUM(I22:I24)</f>
         <v>6</v>
       </c>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="L22" s="64" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="50"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="6" t="s">
         <v>41</v>
       </c>
@@ -2059,16 +2063,16 @@
       <c r="I23" s="5">
         <v>2</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="67"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="6" t="s">
         <v>42</v>
       </c>
@@ -2081,18 +2085,18 @@
       <c r="I24" s="5">
         <v>2</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="67"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="40" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="74">
         <v>45762</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -2107,19 +2111,19 @@
       <c r="I25" s="8">
         <v>4</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="63">
         <f>SUM(I25:I26)</f>
         <v>6</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="67"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="49"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="10" t="s">
         <v>44</v>
       </c>
@@ -2132,18 +2136,18 @@
       <c r="I26" s="8">
         <v>2</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="67"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="39" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="73">
         <v>45763</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -2158,19 +2162,19 @@
       <c r="I27" s="5">
         <v>2</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="61">
         <f>SUM(I27:I28)</f>
         <v>6</v>
       </c>
-      <c r="K27" s="62"/>
-      <c r="L27" s="67"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="65"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="50"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="6" t="s">
         <v>46</v>
       </c>
@@ -2183,14 +2187,14 @@
       <c r="I28" s="5">
         <v>4</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="63"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="68"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="12" t="s">
         <v>39</v>
       </c>
@@ -2220,9 +2224,9 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="12" t="s">
         <v>39</v>
       </c>
@@ -2263,22 +2267,22 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
-      <c r="L31" s="77"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="70">
         <v>45768</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="70">
         <v>45772</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="73">
         <v>45768</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -2293,23 +2297,23 @@
       <c r="I32" s="5">
         <v>2</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="61">
         <f>SUM(I32:I33)</f>
         <v>4</v>
       </c>
-      <c r="K32" s="61" t="s">
+      <c r="K32" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="6" t="s">
         <v>54</v>
       </c>
@@ -2322,14 +2326,14 @@
       <c r="I33" s="5">
         <v>2</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="65"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="8" t="s">
         <v>50</v>
       </c>
@@ -2352,19 +2356,19 @@
         <f>SUM(I34:I34)</f>
         <v>4</v>
       </c>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="67"/>
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="39" t="s">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="73">
         <v>45770</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2379,19 +2383,19 @@
       <c r="I35" s="5">
         <v>2</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="61">
         <f>SUM(I35:I36)</f>
         <v>4</v>
       </c>
-      <c r="K35" s="62"/>
-      <c r="L35" s="65"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="67"/>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="50"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="73"/>
       <c r="F36" s="6" t="s">
         <v>57</v>
       </c>
@@ -2404,18 +2408,18 @@
       <c r="I36" s="5">
         <v>2</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="65"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="67"/>
     </row>
     <row r="37" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="40" t="s">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="74">
         <v>45771</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -2430,19 +2434,19 @@
       <c r="I37" s="8">
         <v>2</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="63">
         <f>SUM(I37:I38)</f>
         <v>4</v>
       </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="65"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="67"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="49"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="10" t="s">
         <v>59</v>
       </c>
@@ -2455,18 +2459,18 @@
       <c r="I38" s="8">
         <v>2</v>
       </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="65"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
     </row>
     <row r="39" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="53" t="s">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="76">
         <v>45772</v>
       </c>
       <c r="F39" s="25" t="s">
@@ -2481,21 +2485,21 @@
       <c r="I39" s="23">
         <v>3</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="62">
         <f>SUM(I39:I40)</f>
         <v>4</v>
       </c>
-      <c r="K39" s="61" t="s">
+      <c r="K39" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="L39" s="65"/>
+      <c r="L39" s="67"/>
     </row>
     <row r="40" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="76"/>
       <c r="F40" s="25" t="s">
         <v>180</v>
       </c>
@@ -2508,9 +2512,9 @@
       <c r="I40" s="23">
         <v>1</v>
       </c>
-      <c r="J40" s="53"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="65"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
@@ -2524,22 +2528,22 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="30"/>
-      <c r="L41" s="77"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="70">
         <v>45775</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="70">
         <v>45779</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="73">
         <v>45775</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -2554,23 +2558,23 @@
       <c r="I42" s="5">
         <v>2</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J42" s="61">
         <f>SUM(I42:I43)</f>
         <v>4</v>
       </c>
-      <c r="K42" s="51" t="s">
+      <c r="K42" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="L42" s="65" t="s">
+      <c r="L42" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="50"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="6" t="s">
         <v>68</v>
       </c>
@@ -2583,14 +2587,14 @@
       <c r="I43" s="5">
         <v>2</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="65"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="67"/>
     </row>
     <row r="44" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="8" t="s">
         <v>62</v>
       </c>
@@ -2613,17 +2617,17 @@
         <f>SUM(I44:I44)</f>
         <v>4</v>
       </c>
-      <c r="K44" s="51"/>
-      <c r="L44" s="65"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="67"/>
     </row>
     <row r="45" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="39" t="s">
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="73">
         <v>45777</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -2638,19 +2642,19 @@
       <c r="I45" s="5">
         <v>2</v>
       </c>
-      <c r="J45" s="39">
+      <c r="J45" s="61">
         <f>SUM(I45:I47)</f>
         <v>4</v>
       </c>
-      <c r="K45" s="51"/>
-      <c r="L45" s="65"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="67"/>
     </row>
     <row r="46" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="50"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="6" t="s">
         <v>71</v>
       </c>
@@ -2663,16 +2667,16 @@
       <c r="I46" s="5">
         <v>1</v>
       </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="65"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="67"/>
     </row>
     <row r="47" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="50"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="6" t="s">
         <v>72</v>
       </c>
@@ -2685,18 +2689,18 @@
       <c r="I47" s="5">
         <v>1</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="65"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="67"/>
     </row>
     <row r="48" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="40" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="74">
         <v>45778</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -2711,21 +2715,21 @@
       <c r="I48" s="8">
         <v>2</v>
       </c>
-      <c r="J48" s="40">
+      <c r="J48" s="63">
         <f>SUM(I48:I49)</f>
         <v>4</v>
       </c>
-      <c r="K48" s="51" t="s">
+      <c r="K48" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="L48" s="65"/>
+      <c r="L48" s="67"/>
     </row>
     <row r="49" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="49"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="10" t="s">
         <v>73</v>
       </c>
@@ -2738,14 +2742,14 @@
       <c r="I49" s="8">
         <v>2</v>
       </c>
-      <c r="J49" s="40"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="65"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="67"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="12" t="s">
         <v>65</v>
       </c>
@@ -2786,25 +2790,25 @@
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
       <c r="K51" s="30"/>
-      <c r="L51" s="77"/>
+      <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B52" s="70">
         <v>45782</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="70">
         <v>45786</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="73">
         <v>45782</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="75" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="7">
@@ -2816,24 +2820,24 @@
       <c r="I52" s="5">
         <v>2</v>
       </c>
-      <c r="J52" s="39">
+      <c r="J52" s="61">
         <f>SUM(I52:I53)</f>
         <v>4</v>
       </c>
-      <c r="K52" s="61" t="s">
+      <c r="K52" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L52" s="65" t="s">
+      <c r="L52" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="38"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="75"/>
       <c r="G53" s="7">
         <v>0.66666666666666663</v>
       </c>
@@ -2843,18 +2847,18 @@
       <c r="I53" s="5">
         <v>2</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="65"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="67"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="40" t="s">
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="49">
+      <c r="E54" s="74">
         <v>45783</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -2869,19 +2873,19 @@
       <c r="I54" s="8">
         <v>2</v>
       </c>
-      <c r="J54" s="40">
+      <c r="J54" s="63">
         <f>SUM(I54:I55)</f>
         <v>4</v>
       </c>
-      <c r="K54" s="62"/>
-      <c r="L54" s="65"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="67"/>
     </row>
     <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="49"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="10" t="s">
         <v>80</v>
       </c>
@@ -2894,18 +2898,18 @@
       <c r="I55" s="8">
         <v>2</v>
       </c>
-      <c r="J55" s="40"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="65"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="67"/>
     </row>
     <row r="56" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="39" t="s">
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="73">
         <v>45784</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -2920,19 +2924,19 @@
       <c r="I56" s="5">
         <v>2</v>
       </c>
-      <c r="J56" s="39">
+      <c r="J56" s="61">
         <f>SUM(I56:I57)</f>
         <v>4</v>
       </c>
-      <c r="K56" s="62"/>
-      <c r="L56" s="65"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="67"/>
     </row>
     <row r="57" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="50"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="73"/>
       <c r="F57" s="6" t="s">
         <v>82</v>
       </c>
@@ -2945,14 +2949,14 @@
       <c r="I57" s="5">
         <v>2</v>
       </c>
-      <c r="J57" s="39"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="65"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="67"/>
     </row>
     <row r="58" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="8" t="s">
         <v>83</v>
       </c>
@@ -2975,17 +2979,17 @@
         <f>SUM(I58:I58)</f>
         <v>4</v>
       </c>
-      <c r="K58" s="63"/>
-      <c r="L58" s="65"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="67"/>
     </row>
     <row r="59" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="53" t="s">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="54">
+      <c r="E59" s="76">
         <v>45786</v>
       </c>
       <c r="F59" s="25" t="s">
@@ -3000,21 +3004,21 @@
       <c r="I59" s="23">
         <v>2</v>
       </c>
-      <c r="J59" s="53">
+      <c r="J59" s="62">
         <f>SUM(I59:I60)</f>
         <v>4</v>
       </c>
-      <c r="K59" s="61" t="s">
+      <c r="K59" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="L59" s="65"/>
+      <c r="L59" s="67"/>
     </row>
     <row r="60" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="54"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="25" t="s">
         <v>178</v>
       </c>
@@ -3027,9 +3031,9 @@
       <c r="I60" s="23">
         <v>2</v>
       </c>
-      <c r="J60" s="53"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="65"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="67"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
@@ -3043,25 +3047,25 @@
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
       <c r="K61" s="30"/>
-      <c r="L61" s="77"/>
+      <c r="L61" s="43"/>
     </row>
     <row r="62" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="70">
         <v>45789</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C62" s="70">
         <v>45793</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="50">
+      <c r="E62" s="73">
         <v>45789</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F62" s="75" t="s">
         <v>91</v>
       </c>
       <c r="G62" s="7">
@@ -3073,24 +3077,24 @@
       <c r="I62" s="5">
         <v>2</v>
       </c>
-      <c r="J62" s="39">
+      <c r="J62" s="61">
         <f>SUM(I62:I63)</f>
         <v>4</v>
       </c>
-      <c r="K62" s="61" t="s">
+      <c r="K62" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L62" s="65" t="s">
+      <c r="L62" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="38"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="75"/>
       <c r="G63" s="7">
         <v>0.66666666666666663</v>
       </c>
@@ -3100,18 +3104,18 @@
       <c r="I63" s="5">
         <v>2</v>
       </c>
-      <c r="J63" s="39"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="65"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="67"/>
     </row>
     <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="40" t="s">
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="74">
         <v>45790</v>
       </c>
       <c r="F64" s="10" t="s">
@@ -3126,19 +3130,19 @@
       <c r="I64" s="8">
         <v>2</v>
       </c>
-      <c r="J64" s="40">
+      <c r="J64" s="63">
         <f>SUM(I64:I65)</f>
         <v>4</v>
       </c>
-      <c r="K64" s="62"/>
-      <c r="L64" s="65"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="67"/>
     </row>
     <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="49"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="10" t="s">
         <v>92</v>
       </c>
@@ -3151,18 +3155,18 @@
       <c r="I65" s="8">
         <v>2</v>
       </c>
-      <c r="J65" s="40"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="65"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="67"/>
     </row>
     <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="39" t="s">
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="50">
+      <c r="E66" s="73">
         <v>45791</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -3177,19 +3181,19 @@
       <c r="I66" s="5">
         <v>2</v>
       </c>
-      <c r="J66" s="39">
+      <c r="J66" s="61">
         <f>SUM(I66:I67)</f>
         <v>4</v>
       </c>
-      <c r="K66" s="62"/>
-      <c r="L66" s="65"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="67"/>
     </row>
     <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="50"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="73"/>
       <c r="F67" s="6" t="s">
         <v>94</v>
       </c>
@@ -3202,18 +3206,18 @@
       <c r="I67" s="5">
         <v>2</v>
       </c>
-      <c r="J67" s="39"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="65"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="67"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="40" t="s">
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="74">
         <v>45792</v>
       </c>
       <c r="F68" s="10" t="s">
@@ -3228,19 +3232,19 @@
       <c r="I68" s="8">
         <v>2</v>
       </c>
-      <c r="J68" s="40">
+      <c r="J68" s="63">
         <f>SUM(I68:I69)</f>
         <v>4</v>
       </c>
-      <c r="K68" s="62"/>
-      <c r="L68" s="65"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="67"/>
     </row>
     <row r="69" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="49"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="10" t="s">
         <v>95</v>
       </c>
@@ -3253,14 +3257,14 @@
       <c r="I69" s="8">
         <v>2</v>
       </c>
-      <c r="J69" s="40"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="65"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="67"/>
     </row>
     <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
       <c r="D70" s="23" t="s">
         <v>89</v>
       </c>
@@ -3286,7 +3290,7 @@
       <c r="K70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L70" s="65"/>
+      <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
@@ -3300,22 +3304,22 @@
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
       <c r="K71" s="30"/>
-      <c r="L71" s="77"/>
+      <c r="L71" s="43"/>
     </row>
     <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="52">
+      <c r="B72" s="70">
         <v>45796</v>
       </c>
-      <c r="C72" s="52">
+      <c r="C72" s="70">
         <v>45800</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="73">
         <v>45796</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -3330,23 +3334,23 @@
       <c r="I72" s="5">
         <v>2</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="61">
         <f>SUM(I72:I73)</f>
         <v>4</v>
       </c>
-      <c r="K72" s="61" t="s">
+      <c r="K72" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L72" s="66" t="s">
+      <c r="L72" s="64" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="50"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="73"/>
       <c r="F73" s="6" t="s">
         <v>103</v>
       </c>
@@ -3359,18 +3363,18 @@
       <c r="I73" s="5">
         <v>2</v>
       </c>
-      <c r="J73" s="39"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="67"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="65"/>
     </row>
     <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="40" t="s">
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="49">
+      <c r="E74" s="74">
         <v>45797</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -3385,19 +3389,19 @@
       <c r="I74" s="8">
         <v>2</v>
       </c>
-      <c r="J74" s="40">
+      <c r="J74" s="63">
         <f>SUM(I74:I75)</f>
         <v>4</v>
       </c>
-      <c r="K74" s="62"/>
-      <c r="L74" s="67"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="65"/>
     </row>
     <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="49"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="74"/>
       <c r="F75" s="10" t="s">
         <v>105</v>
       </c>
@@ -3410,18 +3414,18 @@
       <c r="I75" s="8">
         <v>2</v>
       </c>
-      <c r="J75" s="40"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="67"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="65"/>
     </row>
     <row r="76" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="39" t="s">
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="50">
+      <c r="E76" s="73">
         <v>45798</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -3436,19 +3440,19 @@
       <c r="I76" s="5">
         <v>2</v>
       </c>
-      <c r="J76" s="39">
+      <c r="J76" s="61">
         <f>SUM(I76:I77)</f>
         <v>4</v>
       </c>
-      <c r="K76" s="62"/>
-      <c r="L76" s="67"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="65"/>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="50"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="73"/>
       <c r="F77" s="6" t="s">
         <v>106</v>
       </c>
@@ -3461,14 +3465,14 @@
       <c r="I77" s="5">
         <v>2</v>
       </c>
-      <c r="J77" s="39"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="67"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="65"/>
     </row>
     <row r="78" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
       <c r="D78" s="8" t="s">
         <v>101</v>
       </c>
@@ -3491,13 +3495,13 @@
         <f>SUM(I78:I78)</f>
         <v>4</v>
       </c>
-      <c r="K78" s="63"/>
+      <c r="K78" s="66"/>
       <c r="L78" s="68"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
       <c r="D79" s="12" t="s">
         <v>65</v>
       </c>
@@ -3538,22 +3542,22 @@
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="30"/>
-      <c r="L80" s="77"/>
+      <c r="L80" s="43"/>
     </row>
     <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B81" s="70">
         <v>45803</v>
       </c>
-      <c r="C81" s="52">
+      <c r="C81" s="70">
         <v>45807</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="50">
+      <c r="E81" s="73">
         <v>45803</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -3568,23 +3572,23 @@
       <c r="I81" s="5">
         <v>2</v>
       </c>
-      <c r="J81" s="39">
+      <c r="J81" s="61">
         <f>SUM(I81:I83)</f>
         <v>4</v>
       </c>
-      <c r="K81" s="61" t="s">
+      <c r="K81" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="L81" s="65" t="s">
+      <c r="L81" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="50"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="73"/>
       <c r="F82" s="6" t="s">
         <v>116</v>
       </c>
@@ -3597,16 +3601,16 @@
       <c r="I82" s="5">
         <v>1</v>
       </c>
-      <c r="J82" s="39"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="65"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="67"/>
     </row>
     <row r="83" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="50"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="73"/>
       <c r="F83" s="6" t="s">
         <v>115</v>
       </c>
@@ -3619,18 +3623,18 @@
       <c r="I83" s="5">
         <v>1</v>
       </c>
-      <c r="J83" s="39"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="65"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="67"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="40" t="s">
+      <c r="A84" s="69"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="49">
+      <c r="E84" s="74">
         <v>45804</v>
       </c>
       <c r="F84" s="10" t="s">
@@ -3645,19 +3649,19 @@
       <c r="I84" s="8">
         <v>2</v>
       </c>
-      <c r="J84" s="40">
+      <c r="J84" s="63">
         <f>SUM(I84:I85)</f>
         <v>4</v>
       </c>
-      <c r="K84" s="62"/>
-      <c r="L84" s="65"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="67"/>
     </row>
     <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="49"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="74"/>
       <c r="F85" s="10" t="s">
         <v>118</v>
       </c>
@@ -3670,18 +3674,18 @@
       <c r="I85" s="8">
         <v>2</v>
       </c>
-      <c r="J85" s="40"/>
-      <c r="K85" s="63"/>
-      <c r="L85" s="65"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="67"/>
     </row>
     <row r="86" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="39" t="s">
+      <c r="A86" s="69"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="50">
+      <c r="E86" s="73">
         <v>45805</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -3696,21 +3700,21 @@
       <c r="I86" s="5">
         <v>2</v>
       </c>
-      <c r="J86" s="39">
+      <c r="J86" s="61">
         <f>SUM(I86:I87)</f>
         <v>4</v>
       </c>
-      <c r="K86" s="61" t="s">
+      <c r="K86" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L86" s="65"/>
+      <c r="L86" s="67"/>
     </row>
     <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="50"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="73"/>
       <c r="F87" s="6" t="s">
         <v>120</v>
       </c>
@@ -3723,18 +3727,18 @@
       <c r="I87" s="5">
         <v>2</v>
       </c>
-      <c r="J87" s="39"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="65"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="67"/>
     </row>
     <row r="88" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="40" t="s">
+      <c r="A88" s="69"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="74">
         <v>45806</v>
       </c>
       <c r="F88" s="10" t="s">
@@ -3749,19 +3753,19 @@
       <c r="I88" s="8">
         <v>2</v>
       </c>
-      <c r="J88" s="40">
+      <c r="J88" s="63">
         <f>SUM(I88:I89)</f>
         <v>4</v>
       </c>
-      <c r="K88" s="62"/>
-      <c r="L88" s="65"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="67"/>
     </row>
     <row r="89" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="49"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="74"/>
       <c r="F89" s="10" t="s">
         <v>122</v>
       </c>
@@ -3774,18 +3778,18 @@
       <c r="I89" s="8">
         <v>2</v>
       </c>
-      <c r="J89" s="40"/>
-      <c r="K89" s="63"/>
-      <c r="L89" s="65"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="67"/>
     </row>
     <row r="90" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="53" t="s">
+      <c r="A90" s="69"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="E90" s="54">
+      <c r="E90" s="76">
         <v>45807</v>
       </c>
       <c r="F90" s="25" t="s">
@@ -3800,21 +3804,21 @@
       <c r="I90" s="23">
         <v>3</v>
       </c>
-      <c r="J90" s="53">
+      <c r="J90" s="62">
         <f>SUM(I90:I91)</f>
         <v>4</v>
       </c>
-      <c r="K90" s="61" t="s">
+      <c r="K90" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="L90" s="65"/>
+      <c r="L90" s="67"/>
     </row>
     <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="54"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="76"/>
       <c r="F91" s="25" t="s">
         <v>124</v>
       </c>
@@ -3827,9 +3831,9 @@
       <c r="I91" s="23">
         <v>1</v>
       </c>
-      <c r="J91" s="53"/>
-      <c r="K91" s="63"/>
-      <c r="L91" s="65"/>
+      <c r="J91" s="62"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="67"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="28"/>
@@ -3843,25 +3847,25 @@
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
       <c r="K92" s="30"/>
-      <c r="L92" s="77"/>
+      <c r="L92" s="43"/>
     </row>
     <row r="93" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="51" t="s">
+      <c r="A93" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="52">
+      <c r="B93" s="70">
         <v>45810</v>
       </c>
-      <c r="C93" s="52">
+      <c r="C93" s="70">
         <v>45814</v>
       </c>
-      <c r="D93" s="39" t="s">
+      <c r="D93" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="E93" s="50">
+      <c r="E93" s="73">
         <v>45810</v>
       </c>
-      <c r="F93" s="38" t="s">
+      <c r="F93" s="75" t="s">
         <v>130</v>
       </c>
       <c r="G93" s="7">
@@ -3873,24 +3877,24 @@
       <c r="I93" s="5">
         <v>2</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="61">
         <f>SUM(I93:I94)</f>
         <v>4</v>
       </c>
-      <c r="K93" s="61" t="s">
+      <c r="K93" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L93" s="65" t="s">
+      <c r="L93" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="38"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="75"/>
       <c r="G94" s="7">
         <v>0.66666666666666663</v>
       </c>
@@ -3900,18 +3904,18 @@
       <c r="I94" s="5">
         <v>2</v>
       </c>
-      <c r="J94" s="39"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="65"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="67"/>
     </row>
     <row r="95" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="40" t="s">
+      <c r="A95" s="69"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="E95" s="49">
+      <c r="E95" s="74">
         <v>45811</v>
       </c>
       <c r="F95" s="10" t="s">
@@ -3926,19 +3930,19 @@
       <c r="I95" s="8">
         <v>2</v>
       </c>
-      <c r="J95" s="40">
+      <c r="J95" s="63">
         <f>SUM(I95:I96)</f>
         <v>4</v>
       </c>
-      <c r="K95" s="62"/>
-      <c r="L95" s="65"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="67"/>
     </row>
     <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="49"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="74"/>
       <c r="F96" s="10" t="s">
         <v>132</v>
       </c>
@@ -3951,18 +3955,18 @@
       <c r="I96" s="8">
         <v>2</v>
       </c>
-      <c r="J96" s="40"/>
-      <c r="K96" s="62"/>
-      <c r="L96" s="65"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="67"/>
     </row>
     <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="39" t="s">
+      <c r="A97" s="69"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="50">
+      <c r="E97" s="73">
         <v>45812</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -3977,19 +3981,19 @@
       <c r="I97" s="5">
         <v>2</v>
       </c>
-      <c r="J97" s="39">
+      <c r="J97" s="61">
         <f>SUM(I97:I98)</f>
         <v>4</v>
       </c>
-      <c r="K97" s="62"/>
-      <c r="L97" s="65"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="67"/>
     </row>
     <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="50"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="73"/>
       <c r="F98" s="6" t="s">
         <v>134</v>
       </c>
@@ -4002,18 +4006,18 @@
       <c r="I98" s="5">
         <v>2</v>
       </c>
-      <c r="J98" s="39"/>
-      <c r="K98" s="62"/>
-      <c r="L98" s="65"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="67"/>
     </row>
     <row r="99" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="40" t="s">
+      <c r="A99" s="69"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="E99" s="49">
+      <c r="E99" s="74">
         <v>45813</v>
       </c>
       <c r="F99" s="10" t="s">
@@ -4028,19 +4032,19 @@
       <c r="I99" s="8">
         <v>2</v>
       </c>
-      <c r="J99" s="40">
+      <c r="J99" s="63">
         <f>SUM(I99:I100)</f>
         <v>4</v>
       </c>
-      <c r="K99" s="62"/>
-      <c r="L99" s="65"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="67"/>
     </row>
     <row r="100" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="49"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="74"/>
       <c r="F100" s="10" t="s">
         <v>136</v>
       </c>
@@ -4053,14 +4057,14 @@
       <c r="I100" s="8">
         <v>2</v>
       </c>
-      <c r="J100" s="40"/>
-      <c r="K100" s="63"/>
-      <c r="L100" s="65"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="66"/>
+      <c r="L100" s="67"/>
     </row>
     <row r="101" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
       <c r="D101" s="23" t="s">
         <v>129</v>
       </c>
@@ -4086,7 +4090,7 @@
       <c r="K101" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L101" s="65"/>
+      <c r="L101" s="67"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
@@ -4100,22 +4104,22 @@
       <c r="I102" s="29"/>
       <c r="J102" s="29"/>
       <c r="K102" s="30"/>
-      <c r="L102" s="77"/>
+      <c r="L102" s="43"/>
     </row>
     <row r="103" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="52">
+      <c r="B103" s="70">
         <v>45817</v>
       </c>
-      <c r="C103" s="52">
+      <c r="C103" s="70">
         <v>45821</v>
       </c>
-      <c r="D103" s="39" t="s">
+      <c r="D103" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="50">
+      <c r="E103" s="73">
         <v>45817</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -4130,23 +4134,23 @@
       <c r="I103" s="5">
         <v>2</v>
       </c>
-      <c r="J103" s="39">
+      <c r="J103" s="61">
         <f>SUM(I103:I104)</f>
         <v>4</v>
       </c>
-      <c r="K103" s="61" t="s">
+      <c r="K103" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L103" s="65" t="s">
+      <c r="L103" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="50"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="73"/>
       <c r="F104" s="6" t="s">
         <v>143</v>
       </c>
@@ -4159,18 +4163,18 @@
       <c r="I104" s="5">
         <v>2</v>
       </c>
-      <c r="J104" s="39"/>
-      <c r="K104" s="62"/>
-      <c r="L104" s="65"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="67"/>
     </row>
     <row r="105" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="40" t="s">
+      <c r="A105" s="69"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E105" s="49">
+      <c r="E105" s="74">
         <v>45818</v>
       </c>
       <c r="F105" s="10" t="s">
@@ -4185,19 +4189,19 @@
       <c r="I105" s="8">
         <v>2</v>
       </c>
-      <c r="J105" s="40">
+      <c r="J105" s="63">
         <f>SUM(I105:I106)</f>
         <v>4</v>
       </c>
-      <c r="K105" s="62"/>
-      <c r="L105" s="65"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="67"/>
     </row>
     <row r="106" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="49"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="74"/>
       <c r="F106" s="10" t="s">
         <v>144</v>
       </c>
@@ -4210,18 +4214,18 @@
       <c r="I106" s="8">
         <v>2</v>
       </c>
-      <c r="J106" s="40"/>
-      <c r="K106" s="62"/>
-      <c r="L106" s="65"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="67"/>
     </row>
     <row r="107" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="39" t="s">
+      <c r="A107" s="69"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E107" s="50">
+      <c r="E107" s="73">
         <v>45819</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -4236,19 +4240,19 @@
       <c r="I107" s="5">
         <v>2</v>
       </c>
-      <c r="J107" s="39">
+      <c r="J107" s="61">
         <f>SUM(I107:I108)</f>
         <v>4</v>
       </c>
-      <c r="K107" s="62"/>
-      <c r="L107" s="65"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="67"/>
     </row>
     <row r="108" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="51"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="50"/>
+      <c r="A108" s="69"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="73"/>
       <c r="F108" s="6" t="s">
         <v>146</v>
       </c>
@@ -4261,18 +4265,18 @@
       <c r="I108" s="5">
         <v>2</v>
       </c>
-      <c r="J108" s="39"/>
-      <c r="K108" s="62"/>
-      <c r="L108" s="65"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="67"/>
     </row>
     <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="51"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="40" t="s">
+      <c r="A109" s="69"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="E109" s="49">
+      <c r="E109" s="74">
         <v>45820</v>
       </c>
       <c r="F109" s="10" t="s">
@@ -4287,19 +4291,19 @@
       <c r="I109" s="8">
         <v>2</v>
       </c>
-      <c r="J109" s="40">
+      <c r="J109" s="63">
         <f>SUM(I109:I110)</f>
         <v>4</v>
       </c>
-      <c r="K109" s="62"/>
-      <c r="L109" s="65"/>
+      <c r="K109" s="60"/>
+      <c r="L109" s="67"/>
     </row>
     <row r="110" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="51"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="49"/>
+      <c r="A110" s="69"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="74"/>
       <c r="F110" s="10" t="s">
         <v>148</v>
       </c>
@@ -4312,14 +4316,14 @@
       <c r="I110" s="8">
         <v>2</v>
       </c>
-      <c r="J110" s="40"/>
-      <c r="K110" s="63"/>
-      <c r="L110" s="65"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="66"/>
+      <c r="L110" s="67"/>
     </row>
     <row r="111" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="51"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
+      <c r="A111" s="69"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
       <c r="D111" s="23" t="s">
         <v>141</v>
       </c>
@@ -4345,7 +4349,7 @@
       <c r="K111" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L111" s="65"/>
+      <c r="L111" s="67"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="28"/>
@@ -4359,22 +4363,22 @@
       <c r="I112" s="29"/>
       <c r="J112" s="29"/>
       <c r="K112" s="30"/>
-      <c r="L112" s="77"/>
+      <c r="L112" s="43"/>
     </row>
     <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="52">
+      <c r="B113" s="70">
         <v>45824</v>
       </c>
-      <c r="C113" s="52">
+      <c r="C113" s="70">
         <v>45828</v>
       </c>
-      <c r="D113" s="39" t="s">
+      <c r="D113" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="50">
+      <c r="E113" s="73">
         <v>45824</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -4389,23 +4393,23 @@
       <c r="I113" s="5">
         <v>2</v>
       </c>
-      <c r="J113" s="39">
+      <c r="J113" s="61">
         <f>SUM(I113:I114)</f>
         <v>4</v>
       </c>
-      <c r="K113" s="61" t="s">
+      <c r="K113" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L113" s="65" t="s">
+      <c r="L113" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="51"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="50"/>
+      <c r="A114" s="69"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="73"/>
       <c r="F114" s="6" t="s">
         <v>153</v>
       </c>
@@ -4418,18 +4422,18 @@
       <c r="I114" s="5">
         <v>2</v>
       </c>
-      <c r="J114" s="39"/>
-      <c r="K114" s="62"/>
-      <c r="L114" s="65"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="67"/>
     </row>
     <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="40" t="s">
+      <c r="A115" s="69"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="E115" s="49">
+      <c r="E115" s="74">
         <v>45825</v>
       </c>
       <c r="F115" s="10" t="s">
@@ -4444,19 +4448,19 @@
       <c r="I115" s="8">
         <v>2</v>
       </c>
-      <c r="J115" s="40">
+      <c r="J115" s="63">
         <f>SUM(I115:I116)</f>
         <v>4</v>
       </c>
-      <c r="K115" s="62"/>
-      <c r="L115" s="65"/>
+      <c r="K115" s="60"/>
+      <c r="L115" s="67"/>
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="51"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="49"/>
+      <c r="A116" s="69"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="74"/>
       <c r="F116" s="10" t="s">
         <v>158</v>
       </c>
@@ -4469,18 +4473,18 @@
       <c r="I116" s="8">
         <v>2</v>
       </c>
-      <c r="J116" s="40"/>
-      <c r="K116" s="62"/>
-      <c r="L116" s="65"/>
+      <c r="J116" s="63"/>
+      <c r="K116" s="60"/>
+      <c r="L116" s="67"/>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="51"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="39" t="s">
+      <c r="A117" s="69"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="E117" s="50">
+      <c r="E117" s="73">
         <v>45826</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -4495,19 +4499,19 @@
       <c r="I117" s="5">
         <v>2</v>
       </c>
-      <c r="J117" s="39">
+      <c r="J117" s="61">
         <f>SUM(I117:I118)</f>
         <v>4</v>
       </c>
-      <c r="K117" s="62"/>
-      <c r="L117" s="65"/>
+      <c r="K117" s="60"/>
+      <c r="L117" s="67"/>
     </row>
     <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="51"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="50"/>
+      <c r="A118" s="69"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="73"/>
       <c r="F118" s="6" t="s">
         <v>156</v>
       </c>
@@ -4520,18 +4524,18 @@
       <c r="I118" s="5">
         <v>2</v>
       </c>
-      <c r="J118" s="39"/>
-      <c r="K118" s="62"/>
-      <c r="L118" s="65"/>
+      <c r="J118" s="61"/>
+      <c r="K118" s="60"/>
+      <c r="L118" s="67"/>
     </row>
     <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="51"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="40" t="s">
+      <c r="A119" s="69"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E119" s="49">
+      <c r="E119" s="74">
         <v>45827</v>
       </c>
       <c r="F119" s="10" t="s">
@@ -4546,19 +4550,19 @@
       <c r="I119" s="8">
         <v>2</v>
       </c>
-      <c r="J119" s="40">
+      <c r="J119" s="63">
         <f>SUM(I119:I120)</f>
         <v>4</v>
       </c>
-      <c r="K119" s="62"/>
-      <c r="L119" s="65"/>
+      <c r="K119" s="60"/>
+      <c r="L119" s="67"/>
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="49"/>
+      <c r="A120" s="69"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="63"/>
+      <c r="E120" s="74"/>
       <c r="F120" s="10" t="s">
         <v>184</v>
       </c>
@@ -4571,14 +4575,14 @@
       <c r="I120" s="8">
         <v>2</v>
       </c>
-      <c r="J120" s="40"/>
-      <c r="K120" s="63"/>
-      <c r="L120" s="65"/>
+      <c r="J120" s="63"/>
+      <c r="K120" s="66"/>
+      <c r="L120" s="67"/>
     </row>
     <row r="121" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="51"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="52"/>
+      <c r="A121" s="69"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
       <c r="D121" s="23" t="s">
         <v>164</v>
       </c>
@@ -4604,7 +4608,7 @@
       <c r="K121" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L121" s="65"/>
+      <c r="L121" s="67"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="28"/>
@@ -4618,22 +4622,22 @@
       <c r="I122" s="29"/>
       <c r="J122" s="29"/>
       <c r="K122" s="30"/>
-      <c r="L122" s="77"/>
+      <c r="L122" s="43"/>
     </row>
     <row r="123" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="52">
+      <c r="B123" s="70">
         <v>45831</v>
       </c>
-      <c r="C123" s="52">
+      <c r="C123" s="70">
         <v>45835</v>
       </c>
-      <c r="D123" s="39" t="s">
+      <c r="D123" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="E123" s="50">
+      <c r="E123" s="73">
         <v>45831</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -4648,23 +4652,23 @@
       <c r="I123" s="5">
         <v>2</v>
       </c>
-      <c r="J123" s="39">
+      <c r="J123" s="61">
         <f>SUM(I123:I124)</f>
         <v>4</v>
       </c>
-      <c r="K123" s="61" t="s">
+      <c r="K123" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L123" s="65" t="s">
+      <c r="L123" s="67" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="51"/>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="50"/>
+      <c r="A124" s="69"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="73"/>
       <c r="F124" s="6" t="s">
         <v>167</v>
       </c>
@@ -4677,14 +4681,14 @@
       <c r="I124" s="5">
         <v>2</v>
       </c>
-      <c r="J124" s="39"/>
-      <c r="K124" s="62"/>
-      <c r="L124" s="65"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="67"/>
     </row>
     <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="51"/>
-      <c r="B125" s="52"/>
-      <c r="C125" s="52"/>
+      <c r="A125" s="69"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
       <c r="D125" s="8" t="s">
         <v>165</v>
       </c>
@@ -4707,17 +4711,17 @@
         <f>SUM(I125)</f>
         <v>4</v>
       </c>
-      <c r="K125" s="62"/>
-      <c r="L125" s="65"/>
+      <c r="K125" s="60"/>
+      <c r="L125" s="67"/>
     </row>
     <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="51"/>
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="39" t="s">
+      <c r="A126" s="69"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="E126" s="50">
+      <c r="E126" s="73">
         <v>45833</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -4732,19 +4736,19 @@
       <c r="I126" s="5">
         <v>2</v>
       </c>
-      <c r="J126" s="39">
+      <c r="J126" s="61">
         <f>SUM(I126:I127)</f>
         <v>4</v>
       </c>
-      <c r="K126" s="62"/>
-      <c r="L126" s="65"/>
+      <c r="K126" s="60"/>
+      <c r="L126" s="67"/>
     </row>
     <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="51"/>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="50"/>
+      <c r="A127" s="69"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="73"/>
       <c r="F127" s="6" t="s">
         <v>169</v>
       </c>
@@ -4757,18 +4761,18 @@
       <c r="I127" s="5">
         <v>2</v>
       </c>
-      <c r="J127" s="39"/>
-      <c r="K127" s="62"/>
-      <c r="L127" s="65"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="60"/>
+      <c r="L127" s="67"/>
     </row>
     <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="51"/>
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="40" t="s">
+      <c r="A128" s="69"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="E128" s="49">
+      <c r="E128" s="74">
         <v>45834</v>
       </c>
       <c r="F128" s="10" t="s">
@@ -4783,19 +4787,19 @@
       <c r="I128" s="8">
         <v>2</v>
       </c>
-      <c r="J128" s="40">
+      <c r="J128" s="63">
         <f>SUM(I128:I129)</f>
         <v>4</v>
       </c>
-      <c r="K128" s="62"/>
-      <c r="L128" s="65"/>
+      <c r="K128" s="60"/>
+      <c r="L128" s="67"/>
     </row>
     <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="51"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="49"/>
+      <c r="A129" s="69"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="74"/>
       <c r="F129" s="10" t="s">
         <v>171</v>
       </c>
@@ -4808,14 +4812,14 @@
       <c r="I129" s="8">
         <v>2</v>
       </c>
-      <c r="J129" s="40"/>
-      <c r="K129" s="62"/>
-      <c r="L129" s="65"/>
+      <c r="J129" s="63"/>
+      <c r="K129" s="60"/>
+      <c r="L129" s="67"/>
     </row>
     <row r="130" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="51"/>
-      <c r="B130" s="52"/>
-      <c r="C130" s="52"/>
+      <c r="A130" s="69"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
       <c r="D130" s="23" t="s">
         <v>161</v>
       </c>
@@ -4841,7 +4845,7 @@
       <c r="K130" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L130" s="65"/>
+      <c r="L130" s="67"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="28"/>
@@ -4855,22 +4859,22 @@
       <c r="I131" s="29"/>
       <c r="J131" s="29"/>
       <c r="K131" s="30"/>
-      <c r="L131" s="77"/>
+      <c r="L131" s="43"/>
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="52">
+      <c r="B132" s="70">
         <v>45838</v>
       </c>
-      <c r="C132" s="52">
+      <c r="C132" s="70">
         <v>45842</v>
       </c>
-      <c r="D132" s="41" t="s">
+      <c r="D132" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="43">
+      <c r="E132" s="53">
         <v>45838</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -4885,23 +4889,23 @@
       <c r="I132" s="5">
         <v>2</v>
       </c>
-      <c r="J132" s="39">
+      <c r="J132" s="61">
         <f>SUM(I132:I133)</f>
         <v>4</v>
       </c>
-      <c r="K132" s="61" t="s">
+      <c r="K132" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="L132" s="66" t="s">
+      <c r="L132" s="64" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="51"/>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="42"/>
-      <c r="E133" s="44"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="54"/>
       <c r="F133" s="6" t="s">
         <v>226</v>
       </c>
@@ -4914,18 +4918,18 @@
       <c r="I133" s="5">
         <v>2</v>
       </c>
-      <c r="J133" s="39"/>
-      <c r="K133" s="62"/>
-      <c r="L133" s="67"/>
+      <c r="J133" s="61"/>
+      <c r="K133" s="60"/>
+      <c r="L133" s="65"/>
     </row>
     <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="51"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="45" t="s">
+      <c r="A134" s="69"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="E134" s="47">
+      <c r="E134" s="55">
         <v>45839</v>
       </c>
       <c r="F134" s="10" t="s">
@@ -4940,19 +4944,19 @@
       <c r="I134" s="8">
         <v>2</v>
       </c>
-      <c r="J134" s="40">
+      <c r="J134" s="63">
         <f>SUM(I134:I135)</f>
         <v>4</v>
       </c>
-      <c r="K134" s="62"/>
-      <c r="L134" s="67"/>
+      <c r="K134" s="60"/>
+      <c r="L134" s="65"/>
     </row>
     <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="51"/>
-      <c r="B135" s="52"/>
-      <c r="C135" s="52"/>
-      <c r="D135" s="46"/>
-      <c r="E135" s="48"/>
+      <c r="A135" s="69"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="56"/>
       <c r="F135" s="10" t="s">
         <v>228</v>
       </c>
@@ -4965,18 +4969,18 @@
       <c r="I135" s="8">
         <v>2</v>
       </c>
-      <c r="J135" s="40"/>
-      <c r="K135" s="62"/>
-      <c r="L135" s="67"/>
+      <c r="J135" s="63"/>
+      <c r="K135" s="60"/>
+      <c r="L135" s="65"/>
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="51"/>
-      <c r="B136" s="52"/>
-      <c r="C136" s="52"/>
-      <c r="D136" s="41" t="s">
+      <c r="A136" s="69"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="E136" s="43">
+      <c r="E136" s="53">
         <v>45840</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -4991,19 +4995,19 @@
       <c r="I136" s="5">
         <v>2</v>
       </c>
-      <c r="J136" s="39">
+      <c r="J136" s="61">
         <f>SUM(I136:I137)</f>
         <v>4</v>
       </c>
-      <c r="K136" s="62"/>
-      <c r="L136" s="67"/>
+      <c r="K136" s="60"/>
+      <c r="L136" s="65"/>
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
-      <c r="B137" s="52"/>
-      <c r="C137" s="52"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="44"/>
+      <c r="A137" s="69"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="54"/>
       <c r="F137" s="6" t="s">
         <v>230</v>
       </c>
@@ -5016,18 +5020,18 @@
       <c r="I137" s="5">
         <v>2</v>
       </c>
-      <c r="J137" s="39"/>
-      <c r="K137" s="62"/>
-      <c r="L137" s="67"/>
+      <c r="J137" s="61"/>
+      <c r="K137" s="60"/>
+      <c r="L137" s="65"/>
     </row>
     <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
-      <c r="B138" s="52"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="45" t="s">
+      <c r="A138" s="69"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="E138" s="47">
+      <c r="E138" s="55">
         <v>45841</v>
       </c>
       <c r="F138" s="10" t="s">
@@ -5042,19 +5046,19 @@
       <c r="I138" s="8">
         <v>2</v>
       </c>
-      <c r="J138" s="40">
+      <c r="J138" s="63">
         <f>SUM(I138:I139)</f>
         <v>4</v>
       </c>
-      <c r="K138" s="62"/>
-      <c r="L138" s="67"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="65"/>
     </row>
     <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
-      <c r="B139" s="52"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="46"/>
-      <c r="E139" s="48"/>
+      <c r="A139" s="69"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="56"/>
       <c r="F139" s="10" t="s">
         <v>232</v>
       </c>
@@ -5067,18 +5071,18 @@
       <c r="I139" s="8">
         <v>2</v>
       </c>
-      <c r="J139" s="40"/>
-      <c r="K139" s="63"/>
-      <c r="L139" s="67"/>
+      <c r="J139" s="63"/>
+      <c r="K139" s="66"/>
+      <c r="L139" s="65"/>
     </row>
     <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="51"/>
-      <c r="B140" s="52"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="70" t="s">
+      <c r="A140" s="69"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E140" s="71">
+      <c r="E140" s="57">
         <v>45842</v>
       </c>
       <c r="F140" s="25" t="s">
@@ -5093,36 +5097,36 @@
       <c r="I140" s="23">
         <v>3</v>
       </c>
-      <c r="J140" s="53">
+      <c r="J140" s="62">
         <f>SUM(I140:I141)</f>
         <v>4</v>
       </c>
-      <c r="K140" s="61" t="s">
+      <c r="K140" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="L140" s="67"/>
+      <c r="L140" s="65"/>
     </row>
     <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
-      <c r="B141" s="69"/>
-      <c r="C141" s="69"/>
-      <c r="D141" s="72"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="74" t="s">
+      <c r="A141" s="69"/>
+      <c r="B141" s="77"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="G141" s="75">
+      <c r="G141" s="42">
         <v>0.5</v>
       </c>
-      <c r="H141" s="75">
+      <c r="H141" s="42">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I141" s="76">
+      <c r="I141" s="40">
         <v>1</v>
       </c>
-      <c r="J141" s="70"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="67"/>
+      <c r="J141" s="51"/>
+      <c r="K141" s="60"/>
+      <c r="L141" s="65"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="28"/>
@@ -5136,7 +5140,7 @@
       <c r="I142" s="29"/>
       <c r="J142" s="29"/>
       <c r="K142" s="30"/>
-      <c r="L142" s="77"/>
+      <c r="L142" s="43"/>
     </row>
     <row r="143" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -5182,6 +5186,217 @@
     </row>
   </sheetData>
   <mergeCells count="235">
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="C132:C141"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="C103:C111"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="B113:B121"/>
+    <mergeCell ref="C113:C121"/>
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="A103:A111"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="A81:A91"/>
+    <mergeCell ref="B81:B91"/>
+    <mergeCell ref="C81:C91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C52:C60"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="C62:C70"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="C123:C130"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="K10:K20"/>
+    <mergeCell ref="L10:L20"/>
+    <mergeCell ref="L32:L40"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="K81:K85"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K103:K110"/>
+    <mergeCell ref="K113:K120"/>
+    <mergeCell ref="K93:K100"/>
+    <mergeCell ref="L93:L101"/>
+    <mergeCell ref="L103:L111"/>
+    <mergeCell ref="L113:L121"/>
+    <mergeCell ref="L81:L91"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L42:L49"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K52:K58"/>
+    <mergeCell ref="K62:K69"/>
+    <mergeCell ref="L72:L78"/>
+    <mergeCell ref="K72:K78"/>
+    <mergeCell ref="L52:L60"/>
+    <mergeCell ref="L62:L70"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="D132:D133"/>
     <mergeCell ref="D134:D135"/>
@@ -5206,217 +5421,6 @@
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="K22:K28"/>
     <mergeCell ref="L22:L28"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L42:L49"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K52:K58"/>
-    <mergeCell ref="K62:K69"/>
-    <mergeCell ref="L72:L78"/>
-    <mergeCell ref="K72:K78"/>
-    <mergeCell ref="K81:K85"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="K103:K110"/>
-    <mergeCell ref="K113:K120"/>
-    <mergeCell ref="K93:K100"/>
-    <mergeCell ref="L93:L101"/>
-    <mergeCell ref="L103:L111"/>
-    <mergeCell ref="L113:L121"/>
-    <mergeCell ref="L52:L60"/>
-    <mergeCell ref="L62:L70"/>
-    <mergeCell ref="L81:L91"/>
-    <mergeCell ref="K10:K20"/>
-    <mergeCell ref="L10:L20"/>
-    <mergeCell ref="L32:L40"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="B123:B130"/>
-    <mergeCell ref="C123:C130"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="C81:C91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="C62:C70"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C52:C60"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="C132:C141"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B103:B111"/>
-    <mergeCell ref="C103:C111"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="B113:B121"/>
-    <mergeCell ref="C113:C121"/>
-    <mergeCell ref="C93:C101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="A103:A111"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A81:A91"/>
-    <mergeCell ref="B81:B91"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="E64:E65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="HORARIO!A1" display="h" xr:uid="{EFDDBB0B-55FA-4110-9F3F-30D0A2910B93}"/>
@@ -5429,7 +5433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2D762-DF27-4F0B-B330-C44DD5CEC6C8}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -5442,13 +5446,13 @@
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -5561,13 +5565,13 @@
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
